--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADC7C0-2C20-44CE-9463-AC5E9024AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E474F5B-1B70-4A11-940B-F18F2DB27125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="236">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -656,6 +656,78 @@
   </si>
   <si>
     <t>20/10/2024 00:20:03</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:43:05</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:43:12</t>
+  </si>
+  <si>
+    <t>20/10/2024 10:31:19</t>
+  </si>
+  <si>
+    <t>20/10/2024 10:32:42</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:14:55</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:14:58</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:37:00</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:40:07</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:40:24</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:41:48</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:42:04</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:49:01</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:53:44</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:54:10</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:57:54</t>
+  </si>
+  <si>
+    <t>20/10/2024 15:49:58</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:58:00</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:33:23</t>
+  </si>
+  <si>
+    <t>20/10/2024 14:58:01</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:35:56</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:42:29</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:42:34</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:42:43</t>
+  </si>
+  <si>
+    <t>20/10/2024 17:42:55</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,6 +2595,188 @@
         <v>7</v>
       </c>
     </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="554">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -722,70 +722,958 @@
     <t>20/10/2024 17:42:55</t>
   </si>
   <si>
+    <t>22/10/2024 00:11:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:32</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:19:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:20:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:29:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:30:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:50:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:52:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:55:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:56:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:04</t>
+  </si>
+  <si>
     <t>21/10/2024 08:22:37</t>
   </si>
   <si>
-    <t>21/10/2024 08:33:50</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:19:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:20:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:29:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:30:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:50:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:52:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:55:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:56:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:04</t>
-  </si>
-  <si>
     <t>21/10/2024 08:30:58</t>
   </si>
   <si>
     <t>21/10/2024 08:25:17</t>
   </si>
   <si>
+    <t>21/10/2024 18:51:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:28:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:32:33</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:35:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:33:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:30:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:45:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:26:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:19:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:42:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:20:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:21:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:22:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:16:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:22:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:31:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:10:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:21:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:23:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:35:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:45:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:57:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:00:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:07:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:18:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:11:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:14:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:19:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:40:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:46:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:33:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:43:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:57:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:47:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:02:06</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:22:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:48:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:29:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:51:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:54:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:33:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:23</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:03:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:09:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:15:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:49:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:52:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:32:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:40:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:51:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:57:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:05:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:15:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:14:21</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>21/10/2024 08:26:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:32:33</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:35:11</t>
+    <t>22/10/2024 00:16:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:31:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:38:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:50:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:55:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:22</t>
   </si>
 </sst>
 </file>
@@ -833,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2605,10 +3493,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>238</v>
@@ -2619,10 +3507,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B128" t="s" s="0">
         <v>253</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>254</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>238</v>
@@ -2633,10 +3521,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>254</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>256</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>238</v>
@@ -2647,10 +3535,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>255</v>
-      </c>
-      <c r="B130" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>258</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>238</v>
@@ -2661,10 +3549,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
-        <v>256</v>
-      </c>
-      <c r="B131" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>260</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>238</v>
@@ -2675,15 +3563,2157 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="B132" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>262</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>238</v>
       </c>
       <c r="D132" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>290</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>291</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>307</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>311</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>316</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>322</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>327</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="B180" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>374</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>376</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>386</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>398</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="B201" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="B203" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B205" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B206" t="s" s="1">
+        <v>410</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="1">
+        <v>411</v>
+      </c>
+      <c r="B207" t="s" s="1">
+        <v>412</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B208" t="s" s="1">
+        <v>414</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B209" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B210" t="s" s="1">
+        <v>418</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>419</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="1">
+        <v>423</v>
+      </c>
+      <c r="B213" t="s" s="1">
+        <v>424</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>425</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="1">
+        <v>427</v>
+      </c>
+      <c r="B215" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="B216" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B217" t="s" s="1">
+        <v>432</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B218" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="B219" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="1">
+        <v>437</v>
+      </c>
+      <c r="B220" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="B221" t="s" s="1">
+        <v>440</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="1">
+        <v>441</v>
+      </c>
+      <c r="B222" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="B223" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B224" t="s" s="1">
+        <v>446</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B225" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="B226" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="B227" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="B228" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="1">
+        <v>455</v>
+      </c>
+      <c r="B229" t="s" s="1">
+        <v>456</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="1">
+        <v>457</v>
+      </c>
+      <c r="B230" t="s" s="1">
+        <v>458</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="B231" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="1">
+        <v>461</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>462</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="1">
+        <v>463</v>
+      </c>
+      <c r="B233" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="B234" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B235" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B236" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B237" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B238" t="s" s="1">
+        <v>474</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="B239" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B240" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="B241" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B242" t="s" s="1">
+        <v>482</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B243" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="1">
+        <v>485</v>
+      </c>
+      <c r="B244" t="s" s="1">
+        <v>486</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B245" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="1">
+        <v>489</v>
+      </c>
+      <c r="B246" t="s" s="1">
+        <v>490</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="1">
+        <v>491</v>
+      </c>
+      <c r="B247" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="B248" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B249" t="s" s="1">
+        <v>496</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="B250" t="s" s="1">
+        <v>498</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D250" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="B251" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="1">
+        <v>501</v>
+      </c>
+      <c r="B252" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="1">
+        <v>503</v>
+      </c>
+      <c r="B253" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B254" t="s" s="1">
+        <v>506</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="1">
+        <v>507</v>
+      </c>
+      <c r="B255" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B256" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="B257" t="s" s="1">
+        <v>512</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="1">
+        <v>513</v>
+      </c>
+      <c r="B258" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="1">
+        <v>515</v>
+      </c>
+      <c r="B259" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="1">
+        <v>517</v>
+      </c>
+      <c r="B260" t="s" s="1">
+        <v>518</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B261" t="s" s="1">
+        <v>520</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="B262" t="s" s="1">
+        <v>522</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B263" t="s" s="1">
+        <v>524</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="1">
+        <v>525</v>
+      </c>
+      <c r="B264" t="s" s="1">
+        <v>526</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="B265" t="s" s="1">
+        <v>528</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="1">
+        <v>529</v>
+      </c>
+      <c r="B266" t="s" s="1">
+        <v>530</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="1">
+        <v>531</v>
+      </c>
+      <c r="B267" t="s" s="1">
+        <v>532</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="B268" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="B269" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="B270" t="s" s="1">
+        <v>538</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B271" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="1">
+        <v>541</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="1">
+        <v>546</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="1">
+        <v>548</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="1">
+        <v>549</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="1">
+        <v>553</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D285" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="557">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -722,927 +722,933 @@
     <t>20/10/2024 17:42:55</t>
   </si>
   <si>
+    <t>22/10/2024 00:16:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:39:19</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:19:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:20:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:29:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:30:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:50:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:52:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:55:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:56:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:22:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:30:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:25:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:28:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:32:33</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:35:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:33:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:30:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:45:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:26:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:19:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:42:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:20:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:21:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:22:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:16:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:22:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:31:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:10:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:21:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:23:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:35:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:45:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:57:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:00:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:07:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:18:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:11:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:14:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:19:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:40:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:46:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:33:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:43:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:57:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:47:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:02:06</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:22:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:48:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:29:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:51:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:54:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:33:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:23</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:03:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:09:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:15:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:49:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:52:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:32:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:40:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:51:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:57:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:05:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:15:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:13</t>
+  </si>
+  <si>
     <t>22/10/2024 00:11:00</t>
   </si>
   <si>
     <t>22/10/2024 01:16:32</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:19:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:20:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:29:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:30:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:50:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:52:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:55:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:56:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:22:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:30:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:25:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:28:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:32:33</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:35:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:33:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:30:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:45:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:26:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:19:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:42:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:20:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:21:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:22:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:16:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:22:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:31:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:10:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:21:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:23:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:35:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:45:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:57:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:00:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:07:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:18:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:11:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:14:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:19:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:31:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:40:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:46:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:33:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:43:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:57:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:47:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:02:06</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:22:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:48:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:29:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:51:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:54:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:33:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:23</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:03:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:09:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:15:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:49:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:52:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:32:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:40:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:51:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:57:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:05:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:15:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:13</t>
-  </si>
-  <si>
     <t>22/10/2024 00:14:21</t>
   </si>
   <si>
+    <t>22/10/2024 01:37:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:20</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>22/10/2024 00:16:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:20</t>
-  </si>
-  <si>
     <t>22/10/2024 00:31:52</t>
   </si>
   <si>
@@ -1674,6 +1680,9 @@
   </si>
   <si>
     <t>22/10/2024 01:16:22</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:36:39</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5509,10 +5518,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="1">
-        <v>236</v>
+        <v>539</v>
       </c>
       <c r="B271" t="s" s="1">
-        <v>237</v>
+        <v>540</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>238</v>
@@ -5523,10 +5532,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="1">
-        <v>539</v>
-      </c>
-      <c r="B272" t="s" s="0">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="B272" t="s" s="1">
+        <v>542</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>238</v>
@@ -5537,10 +5546,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="1">
-        <v>541</v>
-      </c>
-      <c r="B273" t="s" s="0">
-        <v>540</v>
+        <v>236</v>
+      </c>
+      <c r="B273" t="s" s="1">
+        <v>237</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>238</v>
@@ -5551,10 +5560,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>238</v>
@@ -5565,10 +5574,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="1">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>238</v>
@@ -5579,10 +5588,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="1">
+        <v>546</v>
+      </c>
+      <c r="B276" t="s" s="0">
         <v>544</v>
-      </c>
-      <c r="B276" t="s" s="0">
-        <v>540</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>238</v>
@@ -5593,10 +5602,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="1">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>238</v>
@@ -5607,10 +5616,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="1">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>238</v>
@@ -5621,10 +5630,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>238</v>
@@ -5635,10 +5644,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="1">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>238</v>
@@ -5649,10 +5658,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>238</v>
@@ -5663,10 +5672,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>238</v>
@@ -5677,10 +5686,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="1">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>238</v>
@@ -5691,10 +5700,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="1">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>238</v>
@@ -5705,15 +5714,29 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="1">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>238</v>
       </c>
       <c r="D285" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="1">
+        <v>556</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D286" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="942">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -722,967 +722,2122 @@
     <t>20/10/2024 17:42:55</t>
   </si>
   <si>
+    <t>23/10/2024 10:24:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:19:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:20:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:29:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:30:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:50:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:52:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:55:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:56:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:22:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:30:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:25:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:28:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:32:33</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:35:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:33:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:30:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:45:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:26:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:19:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:42:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:20:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:21:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:22:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:16:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:22:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:31:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:10:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:21:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:23:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:35:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:45:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:57:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:00:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:07:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:18:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:11:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:14:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:19:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:40:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:46:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:33:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:43:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:57:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:47:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:02:06</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:22:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:48:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:29:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:51:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:54:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:33:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:23</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:03:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:09:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:15:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:49:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:52:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:32:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:40:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:51:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:57:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:05:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:15:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:14:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:37:38</t>
+  </si>
+  <si>
     <t>22/10/2024 00:16:01</t>
   </si>
   <si>
     <t>22/10/2024 01:39:19</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:19:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:20:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:29:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:30:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:50:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:52:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:55:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:56:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:22:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:30:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:25:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:28:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:32:33</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:35:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:33:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:30:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:45:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:26:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:19:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:42:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:20:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:21:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:22:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:16:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:22:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:31:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:10:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:21:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:23:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:35:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:45:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:57:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:00:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:07:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:18:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:11:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:14:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:19:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:31:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:40:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:46:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:33:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:43:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:57:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:47:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:02:06</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:22:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:48:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:29:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:51:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:54:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:33:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:23</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:03:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:09:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:15:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:49:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:52:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:32:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:40:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:51:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:57:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:05:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:15:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:14:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:37:38</t>
-  </si>
-  <si>
     <t>22/10/2024 00:20:20</t>
   </si>
   <si>
+    <t>22/10/2024 06:29:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:31:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:36:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:38:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:46:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:50:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:55:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:50:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:00:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:04:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:22</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:59:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:36:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:22:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:38:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:45:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:47:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:07:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:59:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:20:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:01:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:53:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:05:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:58:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:03:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:10:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:13:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:15:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:55:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:04:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:30:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:34:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:38:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:52:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:25</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:57:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:56:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:59:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:24:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:04:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:13:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:28:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:15:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:37:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:39:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:19:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:25:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:30:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:58:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:48:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:50:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 14:15:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:42:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:11:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:14:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:57:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:22:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:59:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:06:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:09:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:27:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:12:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:29:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:42:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:49:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:41:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:51:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:43:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:40:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:02:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:44:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:25:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:48:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:58:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:04:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:08:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:10:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:14:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:23:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:35:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:36:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:38:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:40:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:01:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:17:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:11:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:15:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:43:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:34:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:43:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:12:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:17:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:19:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:18:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:24:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:36:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:30:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:43:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:38:32</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:54:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:46:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:08:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:16:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:01:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:08:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:21:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:48:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:32:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:41:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:04:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:45:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:47:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:48</t>
+  </si>
+  <si>
+    <t>pedro.lopez&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:44:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:53</t>
+  </si>
+  <si>
+    <t>ana.martinez&amp;pineed</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:01:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:33:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:35:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:56:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:50</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:40:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:45:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:23:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:06:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:51:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:16:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:06:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:24:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:46</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:09:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:10:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:12:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:27:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:20:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:07</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:09</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:46:02</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:34:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:57:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:50:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:02:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:13:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:12:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:23:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:36</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>22/10/2024 00:31:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:38:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:50:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:55:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:22</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:36:39</t>
+    <t>23/10/2024 10:57:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:01:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:03:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:13:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:53</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:54</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +2885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5546,10 +6701,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="1">
-        <v>236</v>
+        <v>543</v>
       </c>
       <c r="B273" t="s" s="1">
-        <v>237</v>
+        <v>544</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>238</v>
@@ -5560,10 +6715,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="1">
-        <v>543</v>
-      </c>
-      <c r="B274" t="s" s="0">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="B274" t="s" s="1">
+        <v>546</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>238</v>
@@ -5574,10 +6729,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="1">
-        <v>545</v>
-      </c>
-      <c r="B275" t="s" s="0">
-        <v>544</v>
+        <v>547</v>
+      </c>
+      <c r="B275" t="s" s="1">
+        <v>548</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>238</v>
@@ -5588,10 +6743,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="1">
-        <v>546</v>
-      </c>
-      <c r="B276" t="s" s="0">
-        <v>544</v>
+        <v>549</v>
+      </c>
+      <c r="B276" t="s" s="1">
+        <v>550</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>238</v>
@@ -5602,10 +6757,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="1">
-        <v>547</v>
-      </c>
-      <c r="B277" t="s" s="0">
-        <v>544</v>
+        <v>551</v>
+      </c>
+      <c r="B277" t="s" s="1">
+        <v>552</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>238</v>
@@ -5616,10 +6771,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="1">
-        <v>548</v>
-      </c>
-      <c r="B278" t="s" s="0">
-        <v>544</v>
+        <v>553</v>
+      </c>
+      <c r="B278" t="s" s="1">
+        <v>554</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>238</v>
@@ -5630,10 +6785,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="1">
-        <v>549</v>
-      </c>
-      <c r="B279" t="s" s="0">
-        <v>544</v>
+        <v>555</v>
+      </c>
+      <c r="B279" t="s" s="1">
+        <v>556</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>238</v>
@@ -5644,10 +6799,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="1">
-        <v>550</v>
-      </c>
-      <c r="B280" t="s" s="0">
-        <v>544</v>
+        <v>557</v>
+      </c>
+      <c r="B280" t="s" s="1">
+        <v>558</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>238</v>
@@ -5658,10 +6813,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="1">
-        <v>551</v>
-      </c>
-      <c r="B281" t="s" s="0">
-        <v>544</v>
+        <v>559</v>
+      </c>
+      <c r="B281" t="s" s="1">
+        <v>560</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>238</v>
@@ -5672,10 +6827,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="1">
-        <v>552</v>
-      </c>
-      <c r="B282" t="s" s="0">
-        <v>544</v>
+        <v>561</v>
+      </c>
+      <c r="B282" t="s" s="1">
+        <v>562</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>238</v>
@@ -5686,10 +6841,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="1">
-        <v>553</v>
-      </c>
-      <c r="B283" t="s" s="0">
-        <v>544</v>
+        <v>563</v>
+      </c>
+      <c r="B283" t="s" s="1">
+        <v>564</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>238</v>
@@ -5700,10 +6855,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="1">
-        <v>554</v>
-      </c>
-      <c r="B284" t="s" s="0">
-        <v>544</v>
+        <v>565</v>
+      </c>
+      <c r="B284" t="s" s="1">
+        <v>566</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>238</v>
@@ -5714,10 +6869,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="1">
-        <v>555</v>
-      </c>
-      <c r="B285" t="s" s="0">
-        <v>544</v>
+        <v>567</v>
+      </c>
+      <c r="B285" t="s" s="1">
+        <v>568</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>238</v>
@@ -5728,15 +6883,2661 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="1">
-        <v>556</v>
-      </c>
-      <c r="B286" t="s" s="0">
-        <v>544</v>
+        <v>569</v>
+      </c>
+      <c r="B286" t="s" s="1">
+        <v>570</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>238</v>
       </c>
       <c r="D286" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="B287" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="1">
+        <v>573</v>
+      </c>
+      <c r="B288" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B289" t="s" s="1">
+        <v>576</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="B290" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B291" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="B292" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D292" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="B293" t="s" s="1">
+        <v>584</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D293" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="B294" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D294" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="1">
+        <v>587</v>
+      </c>
+      <c r="B295" t="s" s="1">
+        <v>588</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D295" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="B296" t="s" s="1">
+        <v>590</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="B297" t="s" s="1">
+        <v>592</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="B298" t="s" s="1">
+        <v>594</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="B299" t="s" s="1">
+        <v>596</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="1">
+        <v>597</v>
+      </c>
+      <c r="B300" t="s" s="1">
+        <v>598</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="1">
+        <v>599</v>
+      </c>
+      <c r="B301" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="1">
+        <v>601</v>
+      </c>
+      <c r="B302" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="1">
+        <v>603</v>
+      </c>
+      <c r="B303" t="s" s="1">
+        <v>604</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="1">
+        <v>605</v>
+      </c>
+      <c r="B304" t="s" s="1">
+        <v>606</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="B305" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="B306" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D306" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="B307" t="s" s="1">
+        <v>612</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="1">
+        <v>613</v>
+      </c>
+      <c r="B308" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D308" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="1">
+        <v>615</v>
+      </c>
+      <c r="B309" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D309" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="1">
+        <v>617</v>
+      </c>
+      <c r="B310" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D310" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="1">
+        <v>619</v>
+      </c>
+      <c r="B311" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D311" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B312" t="s" s="1">
+        <v>622</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D312" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B313" t="s" s="1">
+        <v>624</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D313" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="B314" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D314" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="B315" t="s" s="1">
+        <v>628</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D315" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="1">
+        <v>629</v>
+      </c>
+      <c r="B316" t="s" s="1">
+        <v>630</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D316" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="1">
+        <v>631</v>
+      </c>
+      <c r="B317" t="s" s="1">
+        <v>632</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D317" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="1">
+        <v>633</v>
+      </c>
+      <c r="B318" t="s" s="1">
+        <v>634</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D318" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="B319" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D319" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="1">
+        <v>637</v>
+      </c>
+      <c r="B320" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B321" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D321" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B322" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D322" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="1">
+        <v>643</v>
+      </c>
+      <c r="B323" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D323" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B324" t="s" s="1">
+        <v>646</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="B325" t="s" s="1">
+        <v>648</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D325" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="1">
+        <v>649</v>
+      </c>
+      <c r="B326" t="s" s="1">
+        <v>650</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D326" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B327" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D327" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="1">
+        <v>653</v>
+      </c>
+      <c r="B328" t="s" s="1">
+        <v>654</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D328" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="B329" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D329" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="B330" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D330" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="1">
+        <v>659</v>
+      </c>
+      <c r="B331" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D331" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="1">
+        <v>661</v>
+      </c>
+      <c r="B332" t="s" s="1">
+        <v>662</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D332" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="1">
+        <v>663</v>
+      </c>
+      <c r="B333" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D333" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="B334" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D334" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="B335" t="s" s="1">
+        <v>668</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D335" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="1">
+        <v>669</v>
+      </c>
+      <c r="B336" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D336" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="1">
+        <v>671</v>
+      </c>
+      <c r="B337" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D337" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="B338" t="s" s="1">
+        <v>674</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D338" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="1">
+        <v>675</v>
+      </c>
+      <c r="B339" t="s" s="1">
+        <v>676</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D339" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="1">
+        <v>677</v>
+      </c>
+      <c r="B340" t="s" s="1">
+        <v>678</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D340" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="1">
+        <v>679</v>
+      </c>
+      <c r="B341" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D341" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="1">
+        <v>681</v>
+      </c>
+      <c r="B342" t="s" s="1">
+        <v>682</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D342" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="1">
+        <v>683</v>
+      </c>
+      <c r="B343" t="s" s="1">
+        <v>684</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D343" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="1">
+        <v>685</v>
+      </c>
+      <c r="B344" t="s" s="1">
+        <v>686</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D344" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="B345" t="s" s="1">
+        <v>688</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D345" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>689</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>690</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>691</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>692</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D347" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>693</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>694</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D348" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>695</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>696</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D349" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>697</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D350" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>699</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>700</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D351" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>703</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>704</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D353" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>705</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>706</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D354" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>707</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>708</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D355" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>710</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D356" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>711</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>712</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D357" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>713</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>714</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D358" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>715</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>716</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D359" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>717</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>718</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D360" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>719</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>720</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D361" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>721</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>722</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D362" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>723</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>724</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D363" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="B364" t="s" s="1">
+        <v>726</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D364" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="1">
+        <v>727</v>
+      </c>
+      <c r="B365" t="s" s="1">
+        <v>728</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D365" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="1">
+        <v>729</v>
+      </c>
+      <c r="B366" t="s" s="1">
+        <v>730</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D366" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="1">
+        <v>731</v>
+      </c>
+      <c r="B367" t="s" s="1">
+        <v>732</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D367" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="1">
+        <v>733</v>
+      </c>
+      <c r="B368" t="s" s="1">
+        <v>734</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D368" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="1">
+        <v>735</v>
+      </c>
+      <c r="B369" t="s" s="1">
+        <v>736</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D369" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="1">
+        <v>737</v>
+      </c>
+      <c r="B370" t="s" s="1">
+        <v>738</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D370" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="1">
+        <v>739</v>
+      </c>
+      <c r="B371" t="s" s="1">
+        <v>740</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D371" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="1">
+        <v>741</v>
+      </c>
+      <c r="B372" t="s" s="1">
+        <v>742</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D372" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="1">
+        <v>743</v>
+      </c>
+      <c r="B373" t="s" s="1">
+        <v>744</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D373" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="1">
+        <v>745</v>
+      </c>
+      <c r="B374" t="s" s="1">
+        <v>746</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D374" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="1">
+        <v>747</v>
+      </c>
+      <c r="B375" t="s" s="1">
+        <v>748</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D375" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="1">
+        <v>749</v>
+      </c>
+      <c r="B376" t="s" s="1">
+        <v>750</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D376" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="1">
+        <v>751</v>
+      </c>
+      <c r="B377" t="s" s="1">
+        <v>752</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D377" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="1">
+        <v>753</v>
+      </c>
+      <c r="B378" t="s" s="1">
+        <v>754</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D378" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>755</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>756</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D379" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="1">
+        <v>757</v>
+      </c>
+      <c r="B380" t="s" s="1">
+        <v>758</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D380" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="1">
+        <v>759</v>
+      </c>
+      <c r="B381" t="s" s="1">
+        <v>760</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D381" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="1">
+        <v>761</v>
+      </c>
+      <c r="B382" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D382" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
+        <v>763</v>
+      </c>
+      <c r="B383" t="s" s="1">
+        <v>764</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D383" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="1">
+        <v>765</v>
+      </c>
+      <c r="B384" t="s" s="1">
+        <v>766</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D384" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="1">
+        <v>767</v>
+      </c>
+      <c r="B385" t="s" s="1">
+        <v>768</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D385" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
+        <v>769</v>
+      </c>
+      <c r="B386" t="s" s="1">
+        <v>770</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D386" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="1">
+        <v>771</v>
+      </c>
+      <c r="B387" t="s" s="1">
+        <v>772</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D387" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="1">
+        <v>773</v>
+      </c>
+      <c r="B388" t="s" s="1">
+        <v>774</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D388" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="1">
+        <v>775</v>
+      </c>
+      <c r="B389" t="s" s="1">
+        <v>776</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D389" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="1">
+        <v>777</v>
+      </c>
+      <c r="B390" t="s" s="1">
+        <v>778</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D390" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="1">
+        <v>779</v>
+      </c>
+      <c r="B391" t="s" s="1">
+        <v>780</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D391" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="1">
+        <v>781</v>
+      </c>
+      <c r="B392" t="s" s="1">
+        <v>782</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D392" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="1">
+        <v>783</v>
+      </c>
+      <c r="B393" t="s" s="1">
+        <v>784</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D393" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="1">
+        <v>785</v>
+      </c>
+      <c r="B394" t="s" s="1">
+        <v>786</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D394" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="1">
+        <v>787</v>
+      </c>
+      <c r="B395" t="s" s="1">
+        <v>788</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="1">
+        <v>789</v>
+      </c>
+      <c r="B396" t="s" s="1">
+        <v>790</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="1">
+        <v>791</v>
+      </c>
+      <c r="B397" t="s" s="1">
+        <v>792</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="1">
+        <v>793</v>
+      </c>
+      <c r="B398" t="s" s="1">
+        <v>794</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="1">
+        <v>795</v>
+      </c>
+      <c r="B399" t="s" s="1">
+        <v>796</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>797</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>798</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="1">
+        <v>799</v>
+      </c>
+      <c r="B401" t="s" s="1">
+        <v>800</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="1">
+        <v>801</v>
+      </c>
+      <c r="B402" t="s" s="1">
+        <v>802</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="1">
+        <v>803</v>
+      </c>
+      <c r="B403" t="s" s="1">
+        <v>804</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="1">
+        <v>805</v>
+      </c>
+      <c r="B404" t="s" s="1">
+        <v>806</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="1">
+        <v>807</v>
+      </c>
+      <c r="B405" t="s" s="1">
+        <v>808</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
+        <v>809</v>
+      </c>
+      <c r="B406" t="s" s="1">
+        <v>810</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="1">
+        <v>811</v>
+      </c>
+      <c r="B407" t="s" s="1">
+        <v>812</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="1">
+        <v>813</v>
+      </c>
+      <c r="B408" t="s" s="1">
+        <v>814</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="1">
+        <v>815</v>
+      </c>
+      <c r="B409" t="s" s="1">
+        <v>816</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="1">
+        <v>817</v>
+      </c>
+      <c r="B410" t="s" s="1">
+        <v>818</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="1">
+        <v>819</v>
+      </c>
+      <c r="B411" t="s" s="1">
+        <v>820</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="1">
+        <v>821</v>
+      </c>
+      <c r="B412" t="s" s="1">
+        <v>822</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="1">
+        <v>823</v>
+      </c>
+      <c r="B413" t="s" s="1">
+        <v>824</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="1">
+        <v>825</v>
+      </c>
+      <c r="B414" t="s" s="1">
+        <v>826</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="1">
+        <v>827</v>
+      </c>
+      <c r="B415" t="s" s="1">
+        <v>828</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="1">
+        <v>829</v>
+      </c>
+      <c r="B416" t="s" s="1">
+        <v>830</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="1">
+        <v>831</v>
+      </c>
+      <c r="B417" t="s" s="1">
+        <v>832</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="1">
+        <v>833</v>
+      </c>
+      <c r="B418" t="s" s="1">
+        <v>834</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="1">
+        <v>835</v>
+      </c>
+      <c r="B419" t="s" s="1">
+        <v>836</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="1">
+        <v>837</v>
+      </c>
+      <c r="B420" t="s" s="1">
+        <v>838</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="1">
+        <v>839</v>
+      </c>
+      <c r="B421" t="s" s="1">
+        <v>840</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="1">
+        <v>841</v>
+      </c>
+      <c r="B422" t="s" s="1">
+        <v>842</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="1">
+        <v>843</v>
+      </c>
+      <c r="B423" t="s" s="1">
+        <v>844</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="1">
+        <v>845</v>
+      </c>
+      <c r="B424" t="s" s="1">
+        <v>846</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="1">
+        <v>847</v>
+      </c>
+      <c r="B425" t="s" s="1">
+        <v>848</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="1">
+        <v>849</v>
+      </c>
+      <c r="B426" t="s" s="1">
+        <v>850</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="1">
+        <v>851</v>
+      </c>
+      <c r="B427" t="s" s="1">
+        <v>852</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="1">
+        <v>853</v>
+      </c>
+      <c r="B428" t="s" s="1">
+        <v>854</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="1">
+        <v>855</v>
+      </c>
+      <c r="B429" t="s" s="1">
+        <v>856</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="1">
+        <v>857</v>
+      </c>
+      <c r="B430" t="s" s="1">
+        <v>858</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="1">
+        <v>859</v>
+      </c>
+      <c r="B431" t="s" s="1">
+        <v>860</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="1">
+        <v>861</v>
+      </c>
+      <c r="B432" t="s" s="1">
+        <v>862</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="1">
+        <v>863</v>
+      </c>
+      <c r="B433" t="s" s="1">
+        <v>864</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="1">
+        <v>865</v>
+      </c>
+      <c r="B434" t="s" s="1">
+        <v>866</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="1">
+        <v>869</v>
+      </c>
+      <c r="B435" t="s" s="1">
+        <v>870</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="1">
+        <v>871</v>
+      </c>
+      <c r="B436" t="s" s="1">
+        <v>872</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="1">
+        <v>873</v>
+      </c>
+      <c r="B437" t="s" s="1">
+        <v>874</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="1">
+        <v>876</v>
+      </c>
+      <c r="B438" t="s" s="1">
+        <v>877</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="1">
+        <v>878</v>
+      </c>
+      <c r="B439" t="s" s="1">
+        <v>879</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D439" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="1">
+        <v>880</v>
+      </c>
+      <c r="B440" t="s" s="1">
+        <v>881</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D440" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="1">
+        <v>882</v>
+      </c>
+      <c r="B441" t="s" s="1">
+        <v>883</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D441" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="1">
+        <v>884</v>
+      </c>
+      <c r="B442" t="s" s="1">
+        <v>885</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D442" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="1">
+        <v>886</v>
+      </c>
+      <c r="B443" t="s" s="1">
+        <v>887</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D443" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="1">
+        <v>888</v>
+      </c>
+      <c r="B444" t="s" s="1">
+        <v>889</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D444" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="1">
+        <v>890</v>
+      </c>
+      <c r="B445" t="s" s="1">
+        <v>891</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D445" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="1">
+        <v>892</v>
+      </c>
+      <c r="B446" t="s" s="1">
+        <v>893</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D446" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="1">
+        <v>894</v>
+      </c>
+      <c r="B447" t="s" s="1">
+        <v>895</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D447" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="1">
+        <v>896</v>
+      </c>
+      <c r="B448" t="s" s="1">
+        <v>897</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D448" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="1">
+        <v>898</v>
+      </c>
+      <c r="B449" t="s" s="1">
+        <v>899</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D449" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="1">
+        <v>900</v>
+      </c>
+      <c r="B450" t="s" s="1">
+        <v>901</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D450" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="1">
+        <v>902</v>
+      </c>
+      <c r="B451" t="s" s="1">
+        <v>903</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D451" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="1">
+        <v>904</v>
+      </c>
+      <c r="B452" t="s" s="1">
+        <v>905</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D452" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="1">
+        <v>906</v>
+      </c>
+      <c r="B453" t="s" s="1">
+        <v>907</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D453" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="1">
+        <v>908</v>
+      </c>
+      <c r="B454" t="s" s="1">
+        <v>909</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D454" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="1">
+        <v>910</v>
+      </c>
+      <c r="B455" t="s" s="1">
+        <v>911</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="D455" t="s" s="0">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="1">
+        <v>912</v>
+      </c>
+      <c r="B456" t="s" s="1">
+        <v>913</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D456" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="1">
+        <v>914</v>
+      </c>
+      <c r="B457" t="s" s="1">
+        <v>915</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="D457" t="s" s="0">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="1">
+        <v>916</v>
+      </c>
+      <c r="B458" t="s" s="1">
+        <v>917</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="D458" t="s" s="0">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="1">
+        <v>873</v>
+      </c>
+      <c r="B459" t="s" s="1">
+        <v>874</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="D459" t="s" s="0">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="1">
+        <v>918</v>
+      </c>
+      <c r="B460" t="s" s="1">
+        <v>919</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D460" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="1">
+        <v>920</v>
+      </c>
+      <c r="B461" t="s" s="1">
+        <v>921</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="D461" t="s" s="0">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="1">
+        <v>920</v>
+      </c>
+      <c r="B462" t="s" s="1">
+        <v>921</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="D462" t="s" s="0">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="1">
+        <v>924</v>
+      </c>
+      <c r="B463" t="s" s="1">
+        <v>925</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D463" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="1">
+        <v>926</v>
+      </c>
+      <c r="B464" t="s" s="1">
+        <v>927</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D464" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="1">
+        <v>928</v>
+      </c>
+      <c r="B465" t="s" s="1">
+        <v>929</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D465" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="1">
+        <v>930</v>
+      </c>
+      <c r="B466" t="s" s="1">
+        <v>931</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D466" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="1">
+        <v>932</v>
+      </c>
+      <c r="B467" t="s" s="1">
+        <v>933</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D467" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B468" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D468" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="1">
+        <v>934</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D469" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="1">
+        <v>936</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D470" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="1">
+        <v>937</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D471" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="1">
+        <v>938</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D472" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="1">
+        <v>939</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D473" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="1">
+        <v>940</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D474" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="1">
+        <v>941</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D475" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="991">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -722,2122 +722,2269 @@
     <t>20/10/2024 17:42:55</t>
   </si>
   <si>
+    <t>23/10/2024 16:59:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 18:13:23</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:19:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:20:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:29:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:30:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:50:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:52:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:55:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:56:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:22:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:30:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:25:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:28:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:32:33</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:35:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:33:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:30:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:45:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:26:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:19:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:42:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:20:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:21:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:22:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:16:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:22:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:31:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:10:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:21:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:23:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:35:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:45:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:57:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:00:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:07:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:18:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:11:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:14:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:19:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:40:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:46:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:33:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:43:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:57:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:47:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:02:06</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:22:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:48:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:29:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:51:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:54:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:33:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:23</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:03:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:09:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:15:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:49:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:52:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:32:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:40:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:51:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:57:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:05:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:15:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:14:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:37:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:39:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:29:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:31:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:36:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:38:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:46:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:50:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:55:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:50:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:00:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:04:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:22</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:59:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:36:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:22:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:38:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:45:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:47:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:07:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:59:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:20:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:01:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:53:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:05:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:58:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:03:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:10:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:13:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:15:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:55:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:04:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:30:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:34:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:38:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:52:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:25</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:57:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:56:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:59:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:24:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:04:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:13:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:28:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:15:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:37:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:39:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:19:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:25:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:30:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:58:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:48:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:50:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 14:15:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:42:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:11:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:14:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:57:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:22:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:59:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:06:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:09:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:27:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:12:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:29:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:42:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:49:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:41:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:51:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:43:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:40:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:02:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:44:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:25:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:48:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:58:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:04:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:08:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:10:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:14:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:23:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:35:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:36:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:38:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:40:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:01:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:17:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:11:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:15:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:43:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:34:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:43:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:12:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:17:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:19:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:18:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:24:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:36:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:30:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:43:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:38:32</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:54:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:46:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:08:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:16:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:01:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:08:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:21:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:48:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:32:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:41:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:04:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:45:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:47:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:48</t>
+  </si>
+  <si>
+    <t>pedro.lopez&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:44:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:53</t>
+  </si>
+  <si>
+    <t>ana.martinez&amp;pineed</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:01:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:33:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:35:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:56:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:50</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:40:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:45:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:23:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:06:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:51:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:16:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:06:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:24:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:46</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:09:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:10:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:12:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:27:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:20:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:07</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:09</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:46:02</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:34:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:57:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:50:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:02:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:13:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:12:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:23:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:18</t>
+  </si>
+  <si>
     <t>23/10/2024 10:24:47</t>
   </si>
   <si>
     <t>23/10/2024 11:21:40</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:19:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:20:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:29:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:30:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:50:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:52:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:55:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:56:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:22:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:30:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:25:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:28:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:32:33</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:35:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:33:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:30:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:45:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:26:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:19:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:42:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:20:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:21:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:22:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:16:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:22:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:31:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:10:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:21:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:23:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:35:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:45:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:57:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:00:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:07:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:18:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:11:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:14:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:19:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:31:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:40:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:46:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:33:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:43:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:57:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:47:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:02:06</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:22:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:48:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:29:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:51:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:54:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:33:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:23</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:03:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:09:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:15:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:49:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:52:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:32:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:40:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:51:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:57:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:05:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:15:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:14:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:37:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:39:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:29:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:31:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:36:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:38:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:42:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:46:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:50:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:48:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:55:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:50:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:51:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:56:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:00:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:04:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:22</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:59:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:36:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:00:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:22:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:01:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:38:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:45:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:47:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:07:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:48:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:12:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:51:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:18:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:56:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:59:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:20:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:01:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:53:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:05:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:58:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:00:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:01:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:03:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:09:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:10:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:12:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:18:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:09:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:19:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:12:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:12:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:13:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:44</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:15:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:19:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:42:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:55:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:04:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:30:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:34:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:35:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:38:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:41:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:44:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:45:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:52:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:54:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:25</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:57:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:56:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:59:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:24:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:03:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:04:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:13:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:28:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:15:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:35:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:37:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:39:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:19:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:41:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:44:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:25:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:45:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:30:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:53:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:31:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:53:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:32:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:54:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:43:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:58:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:48:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:00:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:50:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:00:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 14:15:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:03:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:42:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:11:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:46:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:14:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:46:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:47:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:17:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:57:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:22:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:59:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:44</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:06:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:09:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:27:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:12:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:31:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:20:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:32:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:29:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:42:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:39:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:43:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:39:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:49:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:41:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:51:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:43:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:40:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:02:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:44:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:20:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:47:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:25:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:48:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:26:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:58:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:04:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:08:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:28:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:10:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:31:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:14:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:23:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:35:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:38:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:36:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:42:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:38:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:45:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:40:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:46:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:01:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:46:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:17:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:08:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:20:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:11:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:26:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:13:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:15:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:28:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:17:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:31:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:20:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:38:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:42:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:43:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:34:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:45:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:43:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:08:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:10:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:12:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:10:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:17:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:19:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:17:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:20:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:18:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:24:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:20:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:36:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:39:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:42:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:30:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:43:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:38:32</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:44:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:54:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:46:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:08:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:16:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:01:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:20:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:08:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:21:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:48:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:32:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:39:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:41:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:43</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:42:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:04:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:44:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:34:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:45:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:03:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:37:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:03:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:47:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:48</t>
-  </si>
-  <si>
-    <t>pedro.lopez&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:44:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:46:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:53</t>
-  </si>
-  <si>
-    <t>ana.martinez&amp;pineed</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:01:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:46:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:33:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:47:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:34:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:48:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:35:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:49:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:34</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:50:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:37:21</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:56:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:50</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:08:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:18:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:40:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:18:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:45:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:47:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:23:01</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:48:05</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:56:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:49:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:56:30</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:50:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:06:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:51:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:16:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:06:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:24:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:46</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:25:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:08:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:09:35</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:10:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:12:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:27:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:20:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:07</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:09</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:46:02</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:34:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:57:34</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:50:36</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:02:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:13:51</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:12:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:23:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:18</t>
-  </si>
-  <si>
     <t>23/10/2024 10:25:36</t>
   </si>
   <si>
-    <t/>
+    <t>23/10/2024 13:11:18</t>
   </si>
   <si>
     <t>23/10/2024 10:57:24</t>
   </si>
   <si>
+    <t>23/10/2024 13:16:33</t>
+  </si>
+  <si>
     <t>23/10/2024 11:01:10</t>
   </si>
   <si>
+    <t>23/10/2024 13:22:06</t>
+  </si>
+  <si>
     <t>23/10/2024 11:03:25</t>
   </si>
   <si>
+    <t>23/10/2024 13:25:26</t>
+  </si>
+  <si>
     <t>23/10/2024 11:13:15</t>
   </si>
   <si>
+    <t>23/10/2024 13:36:28</t>
+  </si>
+  <si>
     <t>23/10/2024 11:17:53</t>
   </si>
   <si>
+    <t>23/10/2024 13:37:17</t>
+  </si>
+  <si>
     <t>23/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:40:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 12:47:16</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:46:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:14:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 14:04:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:20:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:14:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:22:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:36:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:23:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:39:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:26:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:40:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:29:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 14:00:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:42:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:13:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:47:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:14:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:50:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:51:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:19:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:59:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:23:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:02:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:27:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:09:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:42:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:20:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:46:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:25:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:49:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:27:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:50:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:32:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 18:47:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 18:48:01</t>
+  </si>
+  <si>
+    <t>administrador.admin&amp;pineed</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +3032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9431,10 +9578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="1">
-        <v>236</v>
+        <v>934</v>
       </c>
       <c r="B468" t="s" s="1">
-        <v>237</v>
+        <v>935</v>
       </c>
       <c r="C468" t="s" s="0">
         <v>238</v>
@@ -9445,10 +9592,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="1">
-        <v>934</v>
-      </c>
-      <c r="B469" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
+      </c>
+      <c r="B469" t="s" s="1">
+        <v>937</v>
       </c>
       <c r="C469" t="s" s="0">
         <v>238</v>
@@ -9459,10 +9606,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="1">
-        <v>936</v>
-      </c>
-      <c r="B470" t="s" s="0">
-        <v>935</v>
+        <v>938</v>
+      </c>
+      <c r="B470" t="s" s="1">
+        <v>939</v>
       </c>
       <c r="C470" t="s" s="0">
         <v>238</v>
@@ -9473,10 +9620,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="1">
-        <v>937</v>
-      </c>
-      <c r="B471" t="s" s="0">
-        <v>935</v>
+        <v>940</v>
+      </c>
+      <c r="B471" t="s" s="1">
+        <v>941</v>
       </c>
       <c r="C471" t="s" s="0">
         <v>238</v>
@@ -9487,10 +9634,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="1">
-        <v>938</v>
-      </c>
-      <c r="B472" t="s" s="0">
-        <v>935</v>
+        <v>942</v>
+      </c>
+      <c r="B472" t="s" s="1">
+        <v>943</v>
       </c>
       <c r="C472" t="s" s="0">
         <v>238</v>
@@ -9501,10 +9648,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="1">
-        <v>939</v>
-      </c>
-      <c r="B473" t="s" s="0">
-        <v>935</v>
+        <v>944</v>
+      </c>
+      <c r="B473" t="s" s="1">
+        <v>945</v>
       </c>
       <c r="C473" t="s" s="0">
         <v>238</v>
@@ -9515,10 +9662,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="1">
-        <v>940</v>
-      </c>
-      <c r="B474" t="s" s="0">
-        <v>935</v>
+        <v>946</v>
+      </c>
+      <c r="B474" t="s" s="1">
+        <v>947</v>
       </c>
       <c r="C474" t="s" s="0">
         <v>238</v>
@@ -9529,15 +9676,323 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="1">
-        <v>941</v>
-      </c>
-      <c r="B475" t="s" s="0">
-        <v>935</v>
+        <v>948</v>
+      </c>
+      <c r="B475" t="s" s="1">
+        <v>949</v>
       </c>
       <c r="C475" t="s" s="0">
         <v>238</v>
       </c>
       <c r="D475" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="1">
+        <v>950</v>
+      </c>
+      <c r="B476" t="s" s="1">
+        <v>951</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D476" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="1">
+        <v>952</v>
+      </c>
+      <c r="B477" t="s" s="1">
+        <v>953</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D477" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="1">
+        <v>954</v>
+      </c>
+      <c r="B478" t="s" s="1">
+        <v>955</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D478" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="1">
+        <v>956</v>
+      </c>
+      <c r="B479" t="s" s="1">
+        <v>957</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D479" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="1">
+        <v>958</v>
+      </c>
+      <c r="B480" t="s" s="1">
+        <v>959</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D480" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="1">
+        <v>960</v>
+      </c>
+      <c r="B481" t="s" s="1">
+        <v>961</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D481" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="1">
+        <v>962</v>
+      </c>
+      <c r="B482" t="s" s="1">
+        <v>963</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D482" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="1">
+        <v>964</v>
+      </c>
+      <c r="B483" t="s" s="1">
+        <v>965</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D483" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="1">
+        <v>966</v>
+      </c>
+      <c r="B484" t="s" s="1">
+        <v>967</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D484" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="1">
+        <v>968</v>
+      </c>
+      <c r="B485" t="s" s="1">
+        <v>969</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D485" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="1">
+        <v>970</v>
+      </c>
+      <c r="B486" t="s" s="1">
+        <v>971</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D486" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="1">
+        <v>972</v>
+      </c>
+      <c r="B487" t="s" s="1">
+        <v>973</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D487" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="1">
+        <v>974</v>
+      </c>
+      <c r="B488" t="s" s="1">
+        <v>975</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D488" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="1">
+        <v>976</v>
+      </c>
+      <c r="B489" t="s" s="1">
+        <v>977</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D489" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="1">
+        <v>978</v>
+      </c>
+      <c r="B490" t="s" s="1">
+        <v>979</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D490" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="1">
+        <v>980</v>
+      </c>
+      <c r="B491" t="s" s="1">
+        <v>981</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D491" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="1">
+        <v>982</v>
+      </c>
+      <c r="B492" t="s" s="1">
+        <v>983</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D492" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="1">
+        <v>984</v>
+      </c>
+      <c r="B493" t="s" s="1">
+        <v>985</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D493" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="1">
+        <v>986</v>
+      </c>
+      <c r="B494" t="s" s="1">
+        <v>987</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D494" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B495" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D495" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="1">
+        <v>988</v>
+      </c>
+      <c r="B496" t="s" s="1">
+        <v>989</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="D496" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="1">
+        <v>988</v>
+      </c>
+      <c r="B497" t="s" s="1">
+        <v>989</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="D497" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="1096">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -722,2262 +722,2268 @@
     <t>20/10/2024 17:42:55</t>
   </si>
   <si>
+    <t>23/10/2024 23:11:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:30:53</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:19:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:20:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:29:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:30:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:50:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:52:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:55:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:56:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:22:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:30:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:25:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:28:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:32:33</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:35:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:33:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:30:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:45:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:26:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:19:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:42:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:20:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:21:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:22:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:16:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:22:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:31:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:10:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:21:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:23:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:35:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:45:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:57:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:00:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:07:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:18:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:11:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:14:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:19:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:40:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:46:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:33:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:43:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:57:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:47:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:02:06</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:22:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:48:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:29:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:51:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:54:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:33:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:23</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:03:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:09:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:15:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:49:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:52:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:32:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:40:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:51:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:57:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:05:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:15:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:14:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:37:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:39:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:29:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:31:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:36:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:38:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:46:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:50:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:55:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:50:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:00:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:04:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:22</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:59:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:36:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:22:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:38:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:45:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:47:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:07:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:59:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:20:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:01:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:53:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:05:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:58:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:03:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:10:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:13:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:15:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:55:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:04:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:30:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:34:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:38:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:52:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:25</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:57:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:56:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:59:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:24:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:04:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:13:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:28:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:15:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:37:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:39:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:19:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:25:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:30:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:58:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:48:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:50:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 14:15:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:42:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:11:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:14:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:57:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:22:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:59:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:06:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:09:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:27:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:12:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:29:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:42:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:49:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:41:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:51:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:43:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:40:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:02:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:44:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:25:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:48:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:58:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:04:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:08:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:10:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:14:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:23:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:35:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:36:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:38:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:40:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:01:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:17:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:11:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:15:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:43:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:34:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:43:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:12:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:17:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:19:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:18:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:24:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:36:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:30:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:43:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:38:32</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:54:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:46:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:08:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:16:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:01:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:08:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:21:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:48:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:32:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:41:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:04:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:45:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:47:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:48</t>
+  </si>
+  <si>
+    <t>pedro.lopez&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:44:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:53</t>
+  </si>
+  <si>
+    <t>ana.martinez&amp;pineed</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:01:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:33:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:35:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:56:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:50</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:40:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:45:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:23:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:06:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:51:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:16:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:06:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:24:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:46</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:09:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:10:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:12:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:27:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:20:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:07</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:09</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:46:02</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:34:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:57:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:50:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:02:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:13:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:12:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:23:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:24:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:11:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:57:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:16:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:01:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:22:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:03:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:25:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:13:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:36:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:53</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:37:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:40:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 12:47:16</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:46:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:14:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 14:04:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:20:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:14:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:22:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:36:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:23:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:39:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:26:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:40:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:29:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 14:00:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:42:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:13:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:47:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:14:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:50:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:51:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:19:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:59:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:23:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:02:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:27:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:09:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:42:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:20:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:46:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:25:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:49:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:27:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:50:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:32:05</t>
+  </si>
+  <si>
     <t>23/10/2024 16:59:12</t>
   </si>
   <si>
     <t>23/10/2024 18:13:23</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:19:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:20:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:29:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:30:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:50:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:52:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:55:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:56:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:22:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:30:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:25:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:28:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:32:33</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:35:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:33:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:30:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:45:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:26:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:19:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:42:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:20:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:21:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:22:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:16:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:22:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:31:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:10:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:21:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:23:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:35:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:45:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:57:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:00:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:07:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:18:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:11:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:14:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:19:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:31:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:40:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:46:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:33:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:43:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:57:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:47:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:02:06</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:22:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:48:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:29:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:51:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:54:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:33:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:23</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:03:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:09:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:15:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:49:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:52:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:32:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:40:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:51:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:57:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:05:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:15:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:14:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:37:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:39:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:29:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:31:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:36:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:38:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:42:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:46:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:50:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:48:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:55:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:50:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:51:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:56:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:00:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:04:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:22</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:59:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:36:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:00:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:22:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:01:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:38:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:45:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:47:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:07:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:48:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:12:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:51:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:18:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:56:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:59:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:20:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:01:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:53:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:05:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:58:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:00:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:01:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:03:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:09:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:10:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:12:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:18:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:09:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:19:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:12:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:12:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:13:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:44</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:15:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:19:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:42:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:55:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:04:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:30:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:34:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:35:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:38:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:41:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:44:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:45:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:52:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:54:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:25</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:57:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:56:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:59:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:24:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:03:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:04:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:13:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:28:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:15:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:35:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:37:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:39:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:19:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:41:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:44:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:25:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:45:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:30:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:53:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:31:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:53:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:32:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:54:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:43:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:58:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:48:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:00:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:50:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:00:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 14:15:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:03:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:42:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:11:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:46:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:14:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:46:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:47:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:17:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:57:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:22:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:59:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:44</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:06:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:09:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:27:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:12:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:31:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:20:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:32:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:29:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:42:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:39:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:43:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:39:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:49:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:41:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:51:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:43:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:40:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:02:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:44:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:20:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:47:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:25:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:48:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:26:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:58:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:04:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:08:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:28:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:10:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:31:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:14:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:23:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:35:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:38:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:36:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:42:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:38:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:45:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:40:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:46:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:01:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:46:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:17:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:08:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:20:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:11:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:26:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:13:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:15:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:28:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:17:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:31:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:20:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:38:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:42:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:43:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:34:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:45:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:43:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:08:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:10:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:12:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:10:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:17:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:19:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:17:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:20:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:18:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:24:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:20:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:36:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:39:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:42:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:30:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:43:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:38:32</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:44:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:54:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:46:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:08:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:16:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:01:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:20:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:08:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:21:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:48:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:32:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:39:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:41:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:43</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:42:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:04:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:44:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:34:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:45:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:03:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:37:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:03:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:47:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:48</t>
-  </si>
-  <si>
-    <t>pedro.lopez&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:44:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:46:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:53</t>
-  </si>
-  <si>
-    <t>ana.martinez&amp;pineed</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:01:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:46:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:33:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:47:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:34:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:48:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:35:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:49:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:34</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:50:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:37:21</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:56:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:50</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:08:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:18:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:40:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:18:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:45:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:47:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:23:01</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:48:05</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:56:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:49:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:56:30</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:50:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:06:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:51:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:16:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:06:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:24:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:46</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:25:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:08:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:09:35</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:10:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:12:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:27:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:20:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:07</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:09</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:46:02</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:34:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:57:34</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:50:36</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:02:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:13:51</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:12:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:23:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:24:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:21:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:25:36</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:11:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:57:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:16:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:01:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:22:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:03:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:25:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:13:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:36:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:53</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:37:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:40:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 12:47:16</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:46:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:14:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 14:04:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:20:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:14:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:22:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:15:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:32:37</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:15:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:36:37</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:23:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:39:55</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:26:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:40:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:29:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 14:00:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:42:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:13:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:47:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:14:37</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:50:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:15:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:51:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:19:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:59:30</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:23:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:02:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:27:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:09:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:42:35</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:20:51</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:46:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:25:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:49:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:27:43</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:50:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:32:05</t>
-  </si>
-  <si>
     <t>23/10/2024 18:47:42</t>
   </si>
   <si>
@@ -2985,6 +2991,315 @@
   </si>
   <si>
     <t>administrador.admin&amp;pineed</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:46:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:46:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:48:49</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:49:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:50:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:21:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:44:52</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:16:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:56:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:18:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:56:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:30:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:57:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:45:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:46:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:48:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:01:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:50:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:03:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:53:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:04:32</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:56:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:05:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:57:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:06:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:07:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:08:19</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:59:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:10:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:03:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:10:52</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:04:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:11:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:04:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:18:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:05:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:24:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:06:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:25:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:06:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:30:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:31:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:07:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:08:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:34:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:08:46</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:35:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:10:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:36:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:11:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:37:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:11:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:37:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:17:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:39:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:23:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:39:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:24:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:43:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:30:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:45:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:30:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:52:14</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:31:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:06:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:34:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:07:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:35:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:07:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:35:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:08:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:36:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:10:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:37:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:11:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:38:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:13:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:39:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:16:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:40:02</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:21:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:44:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:22:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:51:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:27:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:07:14</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:30:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:11:58</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>23/10/2024 23:12:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:16:50</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:19:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:22:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:27:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:29:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:30:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:34:20</t>
   </si>
 </sst>
 </file>
@@ -3032,7 +3347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9956,10 +10271,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="1">
-        <v>236</v>
+        <v>988</v>
       </c>
       <c r="B495" t="s" s="1">
-        <v>237</v>
+        <v>989</v>
       </c>
       <c r="C495" t="s" s="0">
         <v>238</v>
@@ -9970,13 +10285,13 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="1">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B496" t="s" s="1">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C496" t="s" s="0">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D496" t="s" s="0">
         <v>7</v>
@@ -9984,15 +10299,813 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="1">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B497" t="s" s="1">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C497" t="s" s="0">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D497" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="1">
+        <v>993</v>
+      </c>
+      <c r="B498" t="s" s="1">
+        <v>994</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D498" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="1">
+        <v>995</v>
+      </c>
+      <c r="B499" t="s" s="1">
+        <v>996</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D499" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="1">
+        <v>997</v>
+      </c>
+      <c r="B500" t="s" s="1">
+        <v>998</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D500" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="1">
+        <v>999</v>
+      </c>
+      <c r="B501" t="s" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D501" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B502" t="s" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D502" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B503" t="s" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D503" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B504" t="s" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D504" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B505" t="s" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D505" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B506" t="s" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D506" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B507" t="s" s="1">
+        <v>1012</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D507" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B508" t="s" s="1">
+        <v>1014</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D508" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B509" t="s" s="1">
+        <v>1016</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D509" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B510" t="s" s="1">
+        <v>1018</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D510" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B511" t="s" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D511" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B512" t="s" s="1">
+        <v>1022</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D512" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B513" t="s" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D513" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B514" t="s" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D514" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B515" t="s" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D515" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B516" t="s" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D516" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B517" t="s" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D517" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B518" t="s" s="1">
+        <v>1034</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D518" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B519" t="s" s="1">
+        <v>1036</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D519" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B520" t="s" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D520" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B521" t="s" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D521" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B522" t="s" s="1">
+        <v>1041</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D522" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B523" t="s" s="1">
+        <v>1043</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D523" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B524" t="s" s="1">
+        <v>1045</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D524" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B525" t="s" s="1">
+        <v>1047</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D525" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B526" t="s" s="1">
+        <v>1049</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D526" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B527" t="s" s="1">
+        <v>1051</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D527" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B528" t="s" s="1">
+        <v>1053</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D528" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B529" t="s" s="1">
+        <v>1055</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D529" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B530" t="s" s="1">
+        <v>1057</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D530" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B531" t="s" s="1">
+        <v>1059</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D531" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B532" t="s" s="1">
+        <v>1061</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B533" t="s" s="1">
+        <v>1063</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B534" t="s" s="1">
+        <v>1065</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B535" t="s" s="1">
+        <v>1067</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B536" t="s" s="1">
+        <v>1069</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B537" t="s" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B538" t="s" s="1">
+        <v>1073</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B539" t="s" s="1">
+        <v>1075</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B540" t="s" s="1">
+        <v>1077</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B541" t="s" s="1">
+        <v>1079</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B542" t="s" s="1">
+        <v>1081</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B543" t="s" s="1">
+        <v>1083</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B544" t="s" s="1">
+        <v>1085</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B545" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D552" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D553" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D554" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="1099">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -722,2569 +722,2578 @@
     <t>20/10/2024 17:42:55</t>
   </si>
   <si>
+    <t>23/10/2024 23:16:50</t>
+  </si>
+  <si>
+    <t>24/10/2024 17:47:58</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:19:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:20:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:29:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:30:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:50:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 06:52:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:55:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 07:56:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:22:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:30:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:25:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:26:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:28:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:32:33</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 08:35:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:33:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 18:51:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:30:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:45:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:31:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 19:39:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:26:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:19:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:42:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:20:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:21:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:22:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:16:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:24:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:22:27</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:25:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 20:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:31:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:10:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:13:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:15:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:21:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:23:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:51:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:27:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:29:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:35:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:45:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:46:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:49:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:57:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:52:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:53:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:00:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:54:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:55:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:56:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:07:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:58:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 21:59:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:01:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:57</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:02:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:03:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:18:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:10:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:11:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:12:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:13:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:14:13</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:15:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:19:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:21:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:22:24</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:23:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:25:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:26:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:40:58</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:27:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:28:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:29:26</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:31</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:30:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:46:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:32:07</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:33:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:34:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:35:48</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:37:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:41:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:42:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:43:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:44:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:39</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:45:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:57:47</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:47:11</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:48:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:37</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:49:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:50:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:52:50</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:53:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:21</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:54:36</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:55:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:35</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:56:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:40</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:16</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:58:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:25</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 22:59:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:00:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:01:08</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:41</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:02:06</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:03:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:20</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:04:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:56</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:05:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:03</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:06:15</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:10:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:01</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:11:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:30</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:59</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:12:55</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:13:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:05</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:16:46</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:20:22</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:32</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:22:38</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:48:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:29:51</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:51:43</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:31:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:54:52</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:32:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:45</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:33:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:49</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:34:18</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:29</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:35:14</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:19</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:36:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:23</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:37:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:03:09</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:10</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:38:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:09:54</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:46:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:17</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:15:42</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:47:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:49:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:34</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:52:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:32:28</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:55:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:02</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:56:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:40:04</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:51:12</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:57:53</t>
+  </si>
+  <si>
+    <t>21/10/2024 23:58:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:00:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:02:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:05:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:15:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:08:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:11:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:14:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:37:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:16:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:39:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:20:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:29:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:31:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:36:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:38:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:39:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:46:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:50:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:55:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:50:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 00:58:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:10:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:00:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:13:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:04:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:16:22</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:59:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 01:36:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:22:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:38:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:45:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:47:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:07:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:48:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:51:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:56:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 06:59:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:20:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 07:01:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:53:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:05:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 09:58:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:00:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:01:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:03:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:06:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:10:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:12:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:18:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 10:19:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:04:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:06:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:07:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:08:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:09:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:09</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:11:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:12:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:13:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:14:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:15:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:16:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:17:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:18:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:19:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:22:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:23:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:42:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:55:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:24:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:04:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:25:36</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:30:13</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:34:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:27:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:53</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:28:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:38:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:30:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:52:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:40:25</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:57:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 11:56:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:59:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:24:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:04:29</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:25:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:13:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:28:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:15:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:35:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:37:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:57</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:39:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:19:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:41:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:44:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:25:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:45:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:30:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:53:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:54:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 12:58:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:48:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:50:20</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:00:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 14:15:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:03:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:42:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:11:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:14:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:46:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:16:15</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:17:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:57:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:22:11</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:59:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:44</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:06:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:24:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:09:58</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:27:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:12:18</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:31:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:20:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:32:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:29:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:42:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:43</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:43:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:39:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:49:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:41:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 13:51:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:43:42</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:40:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:02:27</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:44:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:47:00</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:25:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:48:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:12</t>
+  </si>
+  <si>
+    <t>22/10/2024 15:58:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:04:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:08:06</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:10:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:14:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:23:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:34</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:35:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:36:16</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:38:30</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:32</t>
+  </si>
+  <si>
+    <t>22/10/2024 16:40:08</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:02</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:01:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:46:04</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:17:50</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:39</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:20:59</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:11:17</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:26:03</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:49</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:27:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:15:40</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:28:21</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:46</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:31:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:32:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:38:35</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:38</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:42:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:56</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:43:23</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:34:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 17:45:45</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:43:10</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:08:19</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:57:51</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:26</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:12:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:10:52</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:17:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:13:37</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:19:41</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:17:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:24</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:18:54</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:24:01</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:20:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:36:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:48</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:29:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:05</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:30:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:43:07</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:38:32</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:55</t>
+  </si>
+  <si>
+    <t>22/10/2024 18:54:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:46:28</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:08:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:31</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:16:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:01:14</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:20:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:08:33</t>
+  </si>
+  <si>
+    <t>22/10/2024 19:21:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:48:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:32:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:39:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:41:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:42:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:04:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:44:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:45:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 06:57:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:03:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:47:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:49:48</t>
+  </si>
+  <si>
+    <t>pedro.lopez&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:44:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 07:55:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:53</t>
+  </si>
+  <si>
+    <t>ana.martinez&amp;pineed</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:01:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:46:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:33:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:34:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:35:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:36:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:37:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:56:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:38:50</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:39:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:40:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:18:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:45:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:47:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:23:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:48:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:49:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:56:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:50:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:06:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 08:51:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:16:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:06:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:24:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:07:46</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:08:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:09:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:10:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:12:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:13:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:27:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:20:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:07</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:21:09</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:46:02</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:34:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:57:34</t>
+  </si>
+  <si>
+    <t>23/10/2024 09:50:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:02:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:13:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:12:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:23:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:24:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:21:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:25:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:11:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 10:57:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:16:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:01:10</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:22:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:03:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:25:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:13:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:36:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:53</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:37:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 11:17:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:40:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 12:47:16</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:46:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:14:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 14:04:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:20:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:14:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:22:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:20</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:32:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:36:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:23:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:39:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:26:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 13:40:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:29:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 14:00:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:42:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:13:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:47:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:14:37</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:50:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:15:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:51:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:19:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:59:30</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:23:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:02:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:27:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:09:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 15:42:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:20:51</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:46:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:25:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:49:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:27:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:50:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 17:32:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 16:59:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 18:13:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 18:47:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 18:48:01</t>
+  </si>
+  <si>
+    <t>administrador.admin&amp;pineed</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:46:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:46:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:48:49</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:49:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 20:50:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:21:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:13:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:44:52</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:16:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:56:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:18:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:56:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:30:48</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:57:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:45:11</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:46:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:48:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:01:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:50:24</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:03:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:53:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:04:32</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:56:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:05:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:57:15</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:06:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:01</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:07:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:58:38</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:08:19</t>
+  </si>
+  <si>
+    <t>23/10/2024 21:59:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:10:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:03:29</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:10:52</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:04:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:11:22</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:04:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:18:25</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:05:56</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:24:06</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:06:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:25:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:06:35</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:30:44</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:31:27</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:07:17</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:31:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:08:04</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:34:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:08:46</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:35:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:10:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:36:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:11:05</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:37:31</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:11:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:37:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:17:54</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:39:03</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:23:42</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:39:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:24:23</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:43:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:30:08</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:45:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:30:58</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:52:14</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:31:40</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:06:39</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:34:07</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:07:18</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:35:00</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:07:47</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:35:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:08:33</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:36:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:10:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:37:45</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:11:55</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:38:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:13:21</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:39:36</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:16:59</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:40:02</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:21:28</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:44:12</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:22:41</t>
+  </si>
+  <si>
+    <t>23/10/2024 22:51:57</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:27:26</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:07:14</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:30:06</t>
+  </si>
+  <si>
     <t>23/10/2024 23:11:18</t>
   </si>
   <si>
     <t>23/10/2024 23:30:53</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:19:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:20:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:29:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:30:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:50:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 06:52:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:55:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 07:56:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:22:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:30:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:25:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:26:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:28:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:32:33</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 08:35:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:33:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 18:51:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:30:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:45:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:31:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 19:39:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:26:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:19:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:42:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:20:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:21:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:22:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:16:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:24:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:22:27</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:25:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 20:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:31:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:10:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:13:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:15:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:21:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:23:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:51:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:27:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:29:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:35:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:45:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:46:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:49:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:57:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:52:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:53:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:00:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:54:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:55:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:56:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:07:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:58:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 21:59:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:01:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:57</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:02:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:03:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:18:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:10:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:11:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:12:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:13:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:14:13</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:15:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:19:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:21:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:22:24</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:31:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:23:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:25:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:26:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:40:58</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:27:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:28:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:29:26</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:31</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:30:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:46:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:32:07</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:33:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:34:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:35:48</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:37:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:41:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:42:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:43:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:44:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:39</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:45:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:57:47</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:47:11</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:48:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:37</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:49:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:50:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:52:50</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:53:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:21</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:54:36</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:55:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:35</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:56:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:40</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:16</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:58:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:25</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 22:59:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:00:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:01:08</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:41</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:02:06</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:03:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:20</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:04:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:56</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:05:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:03</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:06:15</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:10:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:01</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:11:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:30</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:59</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:12:55</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:13:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:05</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:16:46</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:20:22</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:32</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:22:38</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:48:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:29:51</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:51:43</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:31:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:54:52</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:32:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:45</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:33:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:49</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:34:18</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:29</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:35:14</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:19</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:36:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:23</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:37:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:03:09</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:10</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:38:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:09:54</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:46:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:17</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:15:42</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:47:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:49:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:34</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:52:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:32:28</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:55:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:02</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:56:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:40:04</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:51:12</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:57:53</t>
-  </si>
-  <si>
-    <t>21/10/2024 23:58:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:00:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:02:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:05:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:15:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:08:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:11:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:14:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:37:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:16:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:39:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:20:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:29:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:31:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:36:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:38:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:42:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:39:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:46:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:50:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:48:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:55:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:50:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 00:58:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:51:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:10:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:56:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:00:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:13:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:04:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:16:22</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:59:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 01:36:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:00:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:22:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:01:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:38:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:45:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:47:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:07:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:48:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:12:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:51:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:18:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:56:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 06:59:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:20:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 07:01:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:53:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:05:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 09:58:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:00:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:01:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:03:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:09:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:06:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:10:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:12:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:18:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 10:19:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:04:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:06:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:07:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:08:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:09:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:19:09</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:11:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:12:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:12:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:13:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:44</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:14:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:15:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:16:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:17:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:18:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:19:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:20:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:21:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:22:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:23:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:42:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:55:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:24:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:04:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:25:36</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:30:13</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:34:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:27:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:35:53</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:28:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:38:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:41:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:44:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:29:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:45:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:30:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:52:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:54:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:40:25</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:57:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 11:56:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:59:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:24:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:03:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:04:29</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:25:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:13:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:28:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:15:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:35:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:37:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:57</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:39:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:19:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:41:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:44:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:25:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:45:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:30:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:53:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:31:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:53:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:32:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:54:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:43:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 12:58:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:48:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:00:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:50:20</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:00:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 14:15:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:03:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:42:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:11:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:46:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:14:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:46:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:16:15</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:47:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:17:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:57:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:22:11</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:59:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:44</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:06:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:24:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:09:58</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:27:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:12:18</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:31:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:20:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:32:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:29:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:42:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:39:43</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:43:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:39:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:49:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:41:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 13:51:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:43:42</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:40:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:02:27</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:44:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:20:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:47:00</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:25:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:48:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:26:12</t>
-  </si>
-  <si>
-    <t>22/10/2024 15:58:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:04:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:08:06</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:28:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:10:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:31:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:14:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:23:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:34</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:35:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:38:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:36:16</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:42:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:38:30</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:45:32</t>
-  </si>
-  <si>
-    <t>22/10/2024 16:40:08</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:46:02</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:01:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:46:04</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:17:50</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:08:39</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:20:59</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:11:17</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:26:03</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:13:49</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:27:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:15:40</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:28:21</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:17:46</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:31:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:20:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:32:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:38:35</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:38</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:42:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:56</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:43:23</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:34:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 17:45:45</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:43:10</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:08:19</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:57:51</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:10:26</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:12:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:10:52</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:17:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:13:37</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:19:41</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:17:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:20:24</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:18:54</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:24:01</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:20:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:36:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:39:48</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:29:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:42:05</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:30:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:43:07</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:38:32</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:44:55</t>
-  </si>
-  <si>
-    <t>22/10/2024 18:54:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:46:28</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:08:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:31</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:16:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:01:14</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:20:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:08:33</t>
-  </si>
-  <si>
-    <t>22/10/2024 19:21:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:48:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:32:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:39:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:41:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:43</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:42:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:04:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:44:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:34:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:45:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 06:57:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:03:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:37:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:03:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:47:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:49:48</t>
-  </si>
-  <si>
-    <t>pedro.lopez&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:44:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 07:55:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:46:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:53</t>
-  </si>
-  <si>
-    <t>ana.martinez&amp;pineed</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:01:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:46:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:33:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:47:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:34:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:48:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:35:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:49:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:36:34</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:50:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:37:21</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:56:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:38:50</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:08:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:39:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:18:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:40:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:18:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:45:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:47:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:23:01</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:48:05</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:56:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:49:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:56:30</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:50:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:06:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 08:51:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:16:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:06:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:24:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:07:46</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:25:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:08:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:09:35</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:10:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:12:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:13:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:27:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:20:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:07</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:21:09</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:46:02</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:34:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:57:34</t>
-  </si>
-  <si>
-    <t>23/10/2024 09:50:36</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:02:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:13:51</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:12:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:23:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:24:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:21:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:25:36</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:11:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 10:57:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:16:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:01:10</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:22:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:03:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:25:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:13:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:36:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:53</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:37:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 11:17:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:40:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 12:47:16</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:46:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:14:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 14:04:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:20:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:14:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:22:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:15:20</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:32:37</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:15:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:36:37</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:23:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:39:55</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:26:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 13:40:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:29:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 14:00:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:42:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:13:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:47:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:14:37</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:50:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:15:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:51:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:19:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:59:30</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:23:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:02:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:27:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:09:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 15:42:35</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:20:51</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:46:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:25:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:49:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:27:43</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:50:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 17:32:05</t>
-  </si>
-  <si>
-    <t>23/10/2024 16:59:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 18:13:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 18:47:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 18:48:01</t>
-  </si>
-  <si>
-    <t>administrador.admin&amp;pineed</t>
-  </si>
-  <si>
-    <t>23/10/2024 20:46:13</t>
-  </si>
-  <si>
-    <t>23/10/2024 20:46:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 20:48:49</t>
-  </si>
-  <si>
-    <t>23/10/2024 20:49:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 20:50:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:21:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:13:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:44:52</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:16:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:56:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:18:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:56:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:30:48</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:57:43</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:45:11</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:58:21</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:46:01</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:58:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:48:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:01:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:50:24</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:03:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:53:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:04:32</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:56:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:05:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:57:15</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:06:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:58:01</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:07:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:58:38</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:08:19</t>
-  </si>
-  <si>
-    <t>23/10/2024 21:59:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:10:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:03:29</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:10:52</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:04:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:11:22</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:04:55</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:18:25</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:05:56</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:24:06</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:06:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:25:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:06:35</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:30:44</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:31:27</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:07:17</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:31:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:08:04</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:34:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:08:46</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:35:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:10:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:36:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:11:05</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:37:31</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:11:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:37:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:17:54</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:39:03</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:23:42</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:39:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:24:23</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:43:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:30:08</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:45:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:30:58</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:52:14</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:31:40</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:06:39</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:34:07</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:07:18</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:35:00</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:07:47</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:35:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:08:33</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:36:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:10:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:37:45</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:11:55</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:38:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:13:21</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:39:36</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:16:59</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:40:02</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:21:28</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:44:12</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:22:41</t>
-  </si>
-  <si>
-    <t>23/10/2024 22:51:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:27:26</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:07:14</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:30:06</t>
-  </si>
-  <si>
     <t>23/10/2024 23:11:58</t>
   </si>
   <si>
+    <t>24/10/2024 12:04:43</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:12:57</t>
+  </si>
+  <si>
+    <t>24/10/2024 12:06:13</t>
+  </si>
+  <si>
+    <t>23/10/2024 23:19:17</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>23/10/2024 23:12:57</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:16:50</t>
-  </si>
-  <si>
-    <t>23/10/2024 23:19:17</t>
   </si>
   <si>
     <t>23/10/2024 23:22:10</t>
@@ -10971,10 +10980,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="1">
-        <v>236</v>
+        <v>1086</v>
       </c>
       <c r="B545" t="s" s="1">
-        <v>237</v>
+        <v>1087</v>
       </c>
       <c r="C545" t="s" s="0">
         <v>238</v>
@@ -10985,10 +10994,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="1">
-        <v>1086</v>
-      </c>
-      <c r="B546" t="s" s="0">
-        <v>1087</v>
+        <v>1088</v>
+      </c>
+      <c r="B546" t="s" s="1">
+        <v>1089</v>
       </c>
       <c r="C546" t="s" s="0">
         <v>238</v>
@@ -10999,10 +11008,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="1">
-        <v>1088</v>
-      </c>
-      <c r="B547" t="s" s="0">
-        <v>1087</v>
+        <v>1090</v>
+      </c>
+      <c r="B547" t="s" s="1">
+        <v>1091</v>
       </c>
       <c r="C547" t="s" s="0">
         <v>238</v>
@@ -11013,10 +11022,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="1">
-        <v>1089</v>
-      </c>
-      <c r="B548" t="s" s="0">
-        <v>1087</v>
+        <v>236</v>
+      </c>
+      <c r="B548" t="s" s="1">
+        <v>237</v>
       </c>
       <c r="C548" t="s" s="0">
         <v>238</v>
@@ -11027,10 +11036,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="1">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B549" t="s" s="0">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C549" t="s" s="0">
         <v>238</v>
@@ -11041,10 +11050,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="1">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B550" t="s" s="0">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C550" t="s" s="0">
         <v>238</v>
@@ -11055,10 +11064,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="1">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B551" t="s" s="0">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C551" t="s" s="0">
         <v>238</v>
@@ -11069,10 +11078,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B552" t="s" s="0">
         <v>1093</v>
-      </c>
-      <c r="B552" t="s" s="0">
-        <v>1087</v>
       </c>
       <c r="C552" t="s" s="0">
         <v>238</v>
@@ -11083,10 +11092,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="1">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="B553" t="s" s="0">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C553" t="s" s="0">
         <v>238</v>
@@ -11097,10 +11106,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="1">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B554" t="s" s="0">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C554" t="s" s="0">
         <v>238</v>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -258,6 +258,126 @@
   </si>
   <si>
     <t>26/10/2024 18:18:35</t>
+  </si>
+  <si>
+    <t>27/10/2024 10:04:28</t>
+  </si>
+  <si>
+    <t>27/10/2024 10:10:36</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:28:38</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:28:53</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:29:51</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:30:06</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:44:52</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:45:34</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:46:27</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:47:56</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:49:30</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:50:59</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:51:48</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:52:07</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:52:57</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:55:57</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:59:01</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:59:19</t>
+  </si>
+  <si>
+    <t>27/10/2024 08:59:54</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:01:43</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:02:51</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:03:08</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:03:52</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:06:44</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:13:19</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:13:58</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:14:35</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:18:29</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:19:24</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:21:12</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:28:41</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:31:49</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:35:22</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:37:30</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:41:47</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:45:29</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:46:11</t>
+  </si>
+  <si>
+    <t>27/10/2024 09:46:55</t>
   </si>
 </sst>
 </file>
@@ -305,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -871,6 +991,286 @@
         <v>69</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="154">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -26,376 +26,454 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>29/10/2024 05:17:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:17:03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:19:18</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:26:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:27:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:30:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:34:27</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:35:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:46:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:58:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:56:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:59:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:35:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:02:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:39:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:50:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:12</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:53:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:17:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:59</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:41</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:58:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:36:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:02:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:11:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:47:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:13:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:22:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:52:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:09</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:30:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:43</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:37:48</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:44:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:00:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:06:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:04:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:13:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:09:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:12:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:19:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:30:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:17:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:33:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:23:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:45:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:55:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:31:17</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:01:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:12:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:15:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:25:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:39:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:48:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:07:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:49</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:37</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:32:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:14:22</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:44:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:17:28</t>
+  </si>
+  <si>
     <t>29/10/2024 03:46:30</t>
   </si>
   <si>
     <t>29/10/2024 05:21:38</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:19:18</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:26:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:27:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:30:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:34:27</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:35:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:46:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:58:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:56:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:59:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:35:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:02:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:39:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:50:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:12</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:53:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:17:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:59</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:41</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:58:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:36:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:02:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:11:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:47:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:13:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:22:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:52:38</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:09</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:30:08</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:43</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:37:48</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:44:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:00:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:06:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:04:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:13:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:09:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:12:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:19:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:30:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:17:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:33:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:23:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:45:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:55:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:31:17</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:56:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:01:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:46</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:12:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:15:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:25:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:39:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:48:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:07:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:49</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:37</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:32:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:14:22</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:44:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:17:28</t>
-  </si>
-  <si>
     <t>29/10/2024 03:55:52</t>
   </si>
   <si>
+    <t>29/10/2024 08:38:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:36</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:19:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:26:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:32:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:34:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:13:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:41:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:16:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:49:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:56:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:40:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:58:50</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:59:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:32</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:36</t>
+  </si>
+  <si>
+    <t>josemanuel.gonzalezcorado&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:33</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>29/10/2024 03:56:36</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:13:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:16:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:40:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:32</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:36</t>
-  </si>
-  <si>
-    <t>josemanuel.gonzalezcorado&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:33</t>
-  </si>
-  <si>
     <t>29/10/2024 05:10:35</t>
   </si>
   <si>
+    <t>29/10/2024 10:00:44</t>
+  </si>
+  <si>
     <t>29/10/2024 05:13:56</t>
   </si>
   <si>
-    <t>29/10/2024 05:17:03</t>
+    <t>29/10/2024 10:03:53</t>
   </si>
   <si>
     <t>29/10/2024 05:20:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 08:30:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:15:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:22:43</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:30:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:33:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:35:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:45:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:53:56</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:58:16</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:59:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:00:04</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:01:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:06:30</t>
   </si>
 </sst>
 </file>
@@ -443,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,10 +1285,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
@@ -1221,10 +1299,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>111</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
@@ -1235,10 +1313,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>113</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
@@ -1249,10 +1327,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>115</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
@@ -1263,10 +1341,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>117</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1277,10 +1355,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>119</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
@@ -1291,10 +1369,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>114</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>121</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
@@ -1305,10 +1383,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>115</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>123</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -1319,10 +1397,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>109</v>
+        <v>124</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>125</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -1333,10 +1411,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>109</v>
+        <v>126</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>127</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -1347,10 +1425,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>118</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>129</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1361,38 +1439,38 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>109</v>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>137</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -1403,10 +1481,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>125</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>109</v>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>139</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -1417,10 +1495,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>126</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>109</v>
+        <v>4</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>5</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -1431,15 +1509,197 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="160">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -26,421 +26,430 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>29/10/2024 09:15:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:37:22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:19:18</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:26:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:27:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:30:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:34:27</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:35:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:46:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:58:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:56:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:59:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:35:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:02:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:39:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:50:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:12</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:53:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:17:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:59</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:41</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:58:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:36:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:02:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:11:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:47:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:13:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:22:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:52:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:09</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:30:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:43</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:37:48</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:44:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:00:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:06:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:04:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:13:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:09:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:12:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:19:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:30:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:17:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:33:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:23:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:45:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:55:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:31:17</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:01:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:12:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:15:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:25:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:39:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:48:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:07:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:49</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:37</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:32:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:14:22</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:44:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:17:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:46:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:21:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:55:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 08:38:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:36</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:19:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:26:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:32:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:34:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:13:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:41:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:16:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:49:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:56:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:40:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:58:50</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:59:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:32</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:36</t>
+  </si>
+  <si>
+    <t>josemanuel.gonzalezcorado&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:33</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>29/10/2024 05:10:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:00:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:13:56</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:03:53</t>
+  </si>
+  <si>
     <t>29/10/2024 05:17:03</t>
   </si>
   <si>
     <t>29/10/2024 10:17:03</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:19:18</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:26:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:27:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:30:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:34:27</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:35:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:46:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:58:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:56:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:59:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:35:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:02:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:39:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:50:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:12</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:53:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:17:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:59</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:41</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:58:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:36:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:02:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:11:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:47:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:13:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:22:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:52:38</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:09</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:30:08</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:43</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:37:48</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:44:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:00:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:06:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:04:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:13:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:09:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:12:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:19:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:30:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:17:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:33:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:23:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:45:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:55:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:31:17</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:56:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:01:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:46</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:12:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:15:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:25:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:39:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:48:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:07:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:49</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:37</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:32:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:14:22</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:44:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:17:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:46:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:21:38</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:55:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 08:38:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:56:36</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:19:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:26:08</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:32:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:34:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:13:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:41:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:16:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:49:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:56:46</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:40:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:58:50</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:59:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:32</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:36</t>
-  </si>
-  <si>
-    <t>josemanuel.gonzalezcorado&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:33</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>29/10/2024 05:10:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:00:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:13:56</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:03:53</t>
-  </si>
-  <si>
     <t>29/10/2024 05:20:58</t>
   </si>
   <si>
+    <t>29/10/2024 10:25:48</t>
+  </si>
+  <si>
     <t>29/10/2024 08:30:40</t>
   </si>
   <si>
-    <t>29/10/2024 09:15:38</t>
+    <t>29/10/2024 10:33:02</t>
   </si>
   <si>
     <t>29/10/2024 09:22:43</t>
@@ -474,6 +483,15 @@
   </si>
   <si>
     <t>29/10/2024 10:06:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:18:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:27:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:36:18</t>
   </si>
 </sst>
 </file>
@@ -521,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1495,10 +1513,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -1509,10 +1527,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>140</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>143</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -1523,10 +1541,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>145</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -1537,10 +1555,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>142</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>5</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -1551,7 +1569,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>135</v>
@@ -1565,7 +1583,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>135</v>
@@ -1579,7 +1597,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>135</v>
@@ -1593,7 +1611,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>135</v>
@@ -1607,7 +1625,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>135</v>
@@ -1621,7 +1639,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>135</v>
@@ -1635,7 +1653,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>135</v>
@@ -1649,7 +1667,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>135</v>
@@ -1663,7 +1681,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>135</v>
@@ -1677,7 +1695,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>135</v>
@@ -1691,7 +1709,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>135</v>
@@ -1700,6 +1718,48 @@
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="162">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -26,435 +26,438 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>29/10/2024 09:22:43</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:47:13</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:19:18</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:26:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:27:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:30:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:34:27</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:35:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:46:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:58:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:56:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:59:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:35:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:02:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:39:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:50:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:12</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:53:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:17:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:59</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:41</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:58:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:36:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:02:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:11:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:47:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:13:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:22:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:52:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:09</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:30:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:43</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:37:48</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:44:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:00:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:06:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:04:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:13:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:09:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:12:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:19:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:30:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:17:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:33:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:23:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:45:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:55:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:31:17</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:01:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:12:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:15:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:25:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:39:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:48:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:07:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:49</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:37</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:32:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:14:22</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:44:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:17:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:46:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:21:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:55:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 08:38:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:36</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:19:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:26:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:32:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:34:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:13:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:41:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:16:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:49:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:56:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:40:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:58:50</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 09:59:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:32</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:36</t>
+  </si>
+  <si>
+    <t>josemanuel.gonzalezcorado&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:33</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>29/10/2024 05:10:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:00:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:13:56</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:03:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:17:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:17:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:20:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:25:48</t>
+  </si>
+  <si>
+    <t>29/10/2024 08:30:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:33:02</t>
+  </si>
+  <si>
     <t>29/10/2024 09:15:38</t>
   </si>
   <si>
     <t>29/10/2024 10:37:22</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:19:18</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:26:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:27:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:30:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:34:27</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:35:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:46:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:58:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:56:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:59:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:35:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:02:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:39:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:50:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:12</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:53:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:17:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:59</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:41</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:58:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:36:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:02:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:11:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:47:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:13:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:22:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:52:38</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:09</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:30:08</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:43</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:37:48</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:44:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:00:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:06:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:04:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:13:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:09:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:12:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:19:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:30:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:17:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:33:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:23:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:45:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:55:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:31:17</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:56:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:01:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:46</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:12:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:15:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:25:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:39:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:48:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:07:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:49</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:37</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:32:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:14:22</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:44:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:17:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:46:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:21:38</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:55:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 08:38:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:56:36</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:19:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:26:08</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:32:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:34:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:13:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:41:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:16:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:49:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:56:46</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:40:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:58:50</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:59:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:32</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:36</t>
-  </si>
-  <si>
-    <t>josemanuel.gonzalezcorado&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:33</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>29/10/2024 05:10:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:00:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:13:56</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:03:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:17:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:17:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:20:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:25:48</t>
-  </si>
-  <si>
-    <t>29/10/2024 08:30:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 10:33:02</t>
-  </si>
-  <si>
-    <t>29/10/2024 09:22:43</t>
-  </si>
-  <si>
     <t>29/10/2024 09:30:42</t>
   </si>
   <si>
@@ -492,6 +495,9 @@
   </si>
   <si>
     <t>29/10/2024 10:36:18</t>
+  </si>
+  <si>
+    <t>29/10/2024 10:44:36</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1555,10 +1561,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -1569,10 +1575,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>146</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>5</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>135</v>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>135</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>135</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>135</v>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>135</v>
@@ -1653,7 +1659,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>135</v>
@@ -1667,7 +1673,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>135</v>
@@ -1681,7 +1687,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>135</v>
@@ -1695,7 +1701,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>135</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>135</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>135</v>
@@ -1737,7 +1743,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>135</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>135</v>
@@ -1760,6 +1766,20 @@
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -26,333 +26,342 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>29/10/2024 04:05:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 06:31:19</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:19:18</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:26:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:27:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:30:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:34:27</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:31:01</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:35:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:45:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:46:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:58:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:56:21</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 00:59:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:35:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:02:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:39:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:13:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:50:34</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:16:12</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:53:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:17:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:59</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:18:41</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:58:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:36:30</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:28</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:37:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:02:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:11:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:47:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:13:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:52</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:48:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:22:20</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:52:38</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:09</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:54:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:30:08</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:43</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:55:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:37:48</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:44:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 01:59:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:00:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:06:45</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:04:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:13:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:09:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:12:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:19:15</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:16:05</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:30:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:17:19</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:33:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:23:35</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:45:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:29:26</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:55:39</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:31:17</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:00</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:33:44</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:01:29</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:46</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:05:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:42:47</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:12:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:15:57</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:21:14</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:25:25</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:51:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:39:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 02:58:54</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:48:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:07:51</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:01:49</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:16:31</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:03</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:23</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:06:37</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:17:24</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:13:13</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:32:11</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:14:22</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:44:55</t>
+  </si>
+  <si>
+    <t>29/10/2024 05:17:28</t>
+  </si>
+  <si>
     <t>29/10/2024 03:46:30</t>
   </si>
   <si>
     <t>29/10/2024 05:21:38</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:19:18</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:26:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:27:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:30:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:34:27</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:31:01</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:35:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:45:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:46:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:58:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:56:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 00:59:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:35:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:02:58</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:39:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:13:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:50:34</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:16:12</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:53:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:17:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:59</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:18:41</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:58:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:36:30</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:28</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:37:42</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:02:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:11:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:47:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:13:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:52</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:48:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:22:20</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:52:38</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:09</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:54:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:30:08</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:43</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:55:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:37:48</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:44:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 01:59:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:00:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:06:45</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:04:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:13:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:09:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:12:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:19:15</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:16:05</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:30:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:17:19</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:33:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:23:35</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:45:40</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:29:26</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:55:39</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:31:17</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:56:00</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:33:44</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:01:29</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:46</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:42:47</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:12:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:15:57</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:21:14</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:53</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:25:25</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:51:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:39:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 02:58:54</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:48:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:07:51</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:01:49</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:16:31</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:03</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:23</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:06:37</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:17:24</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:13:13</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:32:11</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:14:22</t>
-  </si>
-  <si>
-    <t>29/10/2024 03:44:55</t>
-  </si>
-  <si>
-    <t>29/10/2024 05:17:28</t>
-  </si>
-  <si>
     <t>29/10/2024 03:55:52</t>
   </si>
   <si>
+    <t>29/10/2024 06:27:40</t>
+  </si>
+  <si>
+    <t>29/10/2024 03:56:36</t>
+  </si>
+  <si>
+    <t>29/10/2024 06:27:42</t>
+  </si>
+  <si>
+    <t>29/10/2024 04:06:34</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>29/10/2024 03:56:36</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:05:21</t>
-  </si>
-  <si>
-    <t>29/10/2024 04:06:34</t>
-  </si>
-  <si>
     <t>29/10/2024 04:06:35</t>
   </si>
   <si>
@@ -396,6 +405,12 @@
   </si>
   <si>
     <t>29/10/2024 05:20:58</t>
+  </si>
+  <si>
+    <t>29/10/2024 06:19:53</t>
+  </si>
+  <si>
+    <t>29/10/2024 06:29:49</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,10 +1222,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
@@ -1221,10 +1236,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>111</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
@@ -1235,10 +1250,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>113</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
@@ -1249,10 +1264,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>109</v>
+        <v>4</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>5</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
@@ -1263,10 +1278,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1277,10 +1292,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
@@ -1291,10 +1306,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
@@ -1305,10 +1320,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>115</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -1319,10 +1334,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -1333,10 +1348,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -1347,10 +1362,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1361,38 +1376,38 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -1403,10 +1418,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -1417,10 +1432,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -1431,15 +1446,43 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="314">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -26,286 +26,934 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>31/10/2024 07:44:51</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:45:51</t>
+  </si>
+  <si>
+    <t>administrador.admin&amp;pineed</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:36:56</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:40:57</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:45:33</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:46:53</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:51:00</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:51:30</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:51:50</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:52:12</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:52:54</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:53:02</t>
+  </si>
+  <si>
+    <t>30/10/2024 09:57:59</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:16:30</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:23:13</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:24:00</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:25:56</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:27:38</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:27:51</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:28:11</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:29:02</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:29:46</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:33:07</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:36:52</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:34:26</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:38:43</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:37:16</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:41:11</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:40:51</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:43:21</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:43:00</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:47:58</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:45:48</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:50:39</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:48:36</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:52:36</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:51:00</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:53:27</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:53:06</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:59:20</t>
+  </si>
+  <si>
+    <t>30/10/2024 10:56:16</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:01:11</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:00:27</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:02:43</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:01:47</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:04:10</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:03:25</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:37:13</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:33:12</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:40:25</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:39:33</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:46:42</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:43:39</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:48:41</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:46:59</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:51:14</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:50:10</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:52:42</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:52:21</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:57:19</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:55:02</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:01:03</t>
+  </si>
+  <si>
+    <t>30/10/2024 15:57:30</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:05:17</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:01:20</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:05:50</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:08:56</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:09:24</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:11:52</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:15:24</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:17:24</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:17:31</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:34:53</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:34:58</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:40:47</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:41:07</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:41:46</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:43:45</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:44:09</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:44:45</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:51:25</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:56:17</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:56:30</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:56:57</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:58:11</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:59:19</t>
+  </si>
+  <si>
+    <t>30/10/2024 16:59:53</t>
+  </si>
+  <si>
+    <t>30/10/2024 17:01:41</t>
+  </si>
+  <si>
+    <t>30/10/2024 17:02:18</t>
+  </si>
+  <si>
+    <t>30/10/2024 17:06:12</t>
+  </si>
+  <si>
     <t>30/10/2024 17:02:19</t>
   </si>
   <si>
     <t>30/10/2024 17:06:51</t>
   </si>
   <si>
+    <t>30/10/2024 17:06:26</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:38:15</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:38:00</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:40:49</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:40:37</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:43:33</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:42:04</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:45:15</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:45:01</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:47:56</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:47:02</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:48:55</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:48:30</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:52:55</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:50:18</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:53:33</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:53:19</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:53:34</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:55:48</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:56:10</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:58:20</t>
+  </si>
+  <si>
+    <t>30/10/2024 19:58:36</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:01:11</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:01:29</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:03:58</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:04:08</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:04:21</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:04:30</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:20:33</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:09:10</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:20:47</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:25:33</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:28:24</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:28:39</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:28:57</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:29:19</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:30:11</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:29:20</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:31:35</t>
+  </si>
+  <si>
+    <t>30/10/2024 20:30:36</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:03:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:02:50</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:06:22</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:05:37</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:08:21</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:06:31</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:09:24</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:08:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:10:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:09:47</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:10:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:10:41</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:11:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:10:42</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:11:54</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:11:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:12:19</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:11:24</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:13:32</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:12:05</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:14:57</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:13:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:15:15</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:14:41</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:16:50</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:15:45</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:18:13</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:17:06</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:21:46</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:21:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:22:42</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:22:32</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:23:36</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:23:20</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:25:20</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:24:41</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:25:37</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:26:21</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:27:41</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:27:56</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:28:41</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:28:51</t>
+  </si>
+  <si>
+    <t>31/10/2024 05:30:17</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:52:57</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:10:39</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:36:56</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:40:57</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:45:33</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:46:53</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:51:00</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:51:30</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:51:50</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:52:12</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:52:54</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:53:02</t>
-  </si>
-  <si>
-    <t>30/10/2024 09:57:59</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:16:30</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:23:13</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:24:00</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:25:56</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:27:38</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:27:51</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:28:11</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:29:02</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:29:46</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:33:07</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:36:52</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:34:26</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:38:43</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:37:16</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:41:11</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:40:51</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:43:21</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:43:00</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:47:58</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:45:48</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:50:39</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:48:36</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:52:36</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:51:00</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:53:27</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:53:06</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:59:20</t>
-  </si>
-  <si>
-    <t>30/10/2024 10:56:16</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:01:11</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:00:27</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:02:43</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:01:47</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:04:10</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:03:25</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:37:13</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:33:12</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:40:25</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:39:33</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:46:42</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:43:39</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:48:41</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:46:59</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:51:14</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:50:10</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:52:42</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:52:21</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:57:19</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:55:02</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:01:03</t>
-  </si>
-  <si>
-    <t>30/10/2024 15:57:30</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:05:17</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:01:20</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:05:50</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:08:56</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:09:24</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:11:52</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:15:24</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:17:24</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:17:31</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:34:53</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:34:58</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:40:47</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:41:07</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:41:46</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:43:45</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:44:09</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:44:45</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:51:25</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:56:17</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:56:30</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:56:57</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:58:11</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:59:19</t>
-  </si>
-  <si>
-    <t>30/10/2024 16:59:53</t>
-  </si>
-  <si>
-    <t>30/10/2024 17:01:41</t>
-  </si>
-  <si>
-    <t>30/10/2024 17:02:18</t>
-  </si>
-  <si>
-    <t>30/10/2024 17:06:12</t>
-  </si>
-  <si>
-    <t>30/10/2024 17:06:26</t>
+    <t>31/10/2024 07:48:36</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:48:54</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:55:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:55:42</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:56:57</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:57:22</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:58:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 07:59:28</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:01:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:02:42</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:01:54</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:13:07</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:12:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:16:21</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:12:45</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:21:44</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:15:57</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:26:38</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:18:39</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:29:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:25:56</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:34:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:28:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:35:05</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:32:39</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:49:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:34:40</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:53:17</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:48:19</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:57:21</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:52:59</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:57:55</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:57:05</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:03:38</t>
+  </si>
+  <si>
+    <t>31/10/2024 08:57:39</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:04:00</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:03:13</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:06:07</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:03:48</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:08:29</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:05:46</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:09:51</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:07:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:12:17</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:09:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:13:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:11:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:13:59</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:12:49</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:16:59</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:13:26</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:18:44</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:16:22</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:23:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:18:24</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:26:18</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:21:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:27:55</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:26:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:30:13</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:27:36</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:32:49</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:29:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:34:18</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:32:32</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:35:02</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:34:06</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:37:22</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:34:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:46:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:37:00</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:48:40</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:46:35</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:51:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:47:17</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:52:46</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:50:20</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:54:39</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:52:05</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:58:42</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:54:24</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:06:54</t>
+  </si>
+  <si>
+    <t>31/10/2024 09:58:20</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:08:25</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:06:32</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:10:57</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:07:02</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:12:53</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:08:39</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:13:35</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:08:40</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:18:52</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:11:12</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:19:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:13:07</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:19:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:18:05</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:23:22</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:18:06</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:28:30</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:18:53</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:28:59</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:19:09</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:34:10</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:23:01</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:35:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:28:13</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:38:08</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:28:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:41:40</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:33:32</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:42:58</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:34:53</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:44:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:37:53</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:54:03</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:41:25</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:00:40</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:41:26</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:02:51</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:42:44</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:05:42</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:43:32</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:07:43</t>
+  </si>
+  <si>
+    <t>31/10/2024 10:59:43</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>31/10/2024 11:01:45</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:05:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:07:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 11:10:21</t>
   </si>
 </sst>
 </file>
@@ -353,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1005,10 +1653,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -1019,15 +1667,1569 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>99</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>290</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>291</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>307</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>311</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D159" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/LOGGIN.xlsx
+++ b/ProyectoPooDist/excels/LOGGIN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="311">
   <si>
     <t>Tiempo Entrada</t>
   </si>
@@ -50,730 +50,901 @@
     <t>30/10/2024 09:46:53</t>
   </si>
   <si>
+    <t>04/11/2024 11:11:12</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:38:49</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:14:57</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:20:20</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:28:23</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:28:56</t>
+  </si>
+  <si>
+    <t>mynor.gonzalez&amp;pineed</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:29:10</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:38:25</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:39:14</t>
+  </si>
+  <si>
+    <t>31/10/2024 12:40:14</t>
+  </si>
+  <si>
+    <t>01/11/2024 07:56:43</t>
+  </si>
+  <si>
+    <t>01/11/2024 07:57:16</t>
+  </si>
+  <si>
+    <t>01/11/2024 07:59:21</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:03:41</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:04:18</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:04:54</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:06:50</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:07:09</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:08:34</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:08:58</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:10:03</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:10:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:14:13</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:14:37</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:15:47</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:16:12</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:18:02</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:18:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:23:40</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:24:26</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:25:04</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:25:28</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:25:07</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:29:02</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:28:28</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:32:00</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:31:33</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:34:52</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:34:24</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:41:46</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:41:35</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:44:34</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:44:05</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:54:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:53:49</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:56:47</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:56:00</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:57:58</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:57:48</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:59:54</t>
+  </si>
+  <si>
+    <t>01/11/2024 08:59:46</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:05:33</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:04:25</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:08:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:07:55</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:09:41</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:09:12</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:11:25</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:11:02</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:11:27</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:11:03</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:13:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:13:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:14:21</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:14:13</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:17:49</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:17:37</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:18:36</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:18:19</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:19:21</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:18:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:22:30</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:19:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:24:44</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:22:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:26:40</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:24:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:27:42</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:25:42</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:30:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:27:06</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:31:58</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:29:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:36:16</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:31:02</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:40:14</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:35:54</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:42:16</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:39:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:56:12</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:41:03</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:59:03</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:55:50</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:00:52</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:58:26</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:02:43</t>
+  </si>
+  <si>
+    <t>01/11/2024 09:58:27</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:03:03</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:00:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:04:08</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:02:06</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:04:55</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:02:56</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:05:27</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:02:57</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:06:01</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:03:50</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:07:25</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:04:48</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:08:58</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:04:49</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:11:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:05:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:12:08</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:05:44</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:22:53</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:06:38</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:22:56</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:08:35</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:24:59</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:09:45</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:26:36</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:11:53</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:27:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:17:30</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:28:13</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:22:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:29:45</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:23:18</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:30:46</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:25:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:32:07</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:26:43</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:33:36</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:27:52</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:34:41</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:28:33</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:40:00</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:30:02</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:43:38</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:31:09</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:44:41</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:31:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:49:19</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:32:40</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:52:55</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:34:17</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:02:57</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:39:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:21:17</t>
+  </si>
+  <si>
+    <t>01/11/2024 10:41:09</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:25:14</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:41:28</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:28:57</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:48:44</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:31:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:52:13</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:36:28</t>
+  </si>
+  <si>
+    <t>01/11/2024 12:53:37</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:39:57</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:20:28</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:48:01</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:23:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:51:55</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:23:23</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:53:08</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:27:28</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:53:36</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:30:46</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:55:08</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:35:40</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:57:30</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:35:41</t>
+  </si>
+  <si>
+    <t>01/11/2024 14:56:05</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:38:11</t>
+  </si>
+  <si>
+    <t>01/11/2024 14:57:55</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:42:05</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:00:47</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:48:19</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:03:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:52:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:08:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:53:26</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:10:57</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:54:39</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:12:24</t>
+  </si>
+  <si>
+    <t>01/11/2024 13:57:09</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:36:47</t>
+  </si>
+  <si>
+    <t>01/11/2024 14:54:57</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:41:45</t>
+  </si>
+  <si>
+    <t>01/11/2024 14:57:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:51:46</t>
+  </si>
+  <si>
+    <t>01/11/2024 14:58:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:53:31</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:03:17</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:53:35</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:03:18</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:55:22</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:07:32</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:55:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:10:38</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:59:06</t>
+  </si>
+  <si>
+    <t>01/11/2024 15:12:14</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:03:53</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:32:03</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:03:55</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:37:52</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:06:24</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:41:35</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:07:00</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:44:36</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:09:34</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:51:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:11:16</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:53:10</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:13:39</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:55:13</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:15:25</t>
+  </si>
+  <si>
+    <t>01/11/2024 18:57:16</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:16:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:00:53</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:19:37</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:03:38</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:19:44</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:05:21</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:21:42</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:06:49</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:24:07</t>
+  </si>
+  <si>
     <t>01/11/2024 19:07:29</t>
   </si>
   <si>
     <t>01/11/2024 19:27:58</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:14:57</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:20:20</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:28:23</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:28:56</t>
-  </si>
-  <si>
-    <t>mynor.gonzalez&amp;pineed</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:29:10</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:38:25</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:39:14</t>
-  </si>
-  <si>
-    <t>31/10/2024 12:40:14</t>
-  </si>
-  <si>
-    <t>01/11/2024 07:56:43</t>
-  </si>
-  <si>
-    <t>01/11/2024 07:57:16</t>
-  </si>
-  <si>
-    <t>01/11/2024 07:59:21</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:03:41</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:04:18</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:04:54</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:06:50</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:07:09</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:08:34</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:08:58</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:10:03</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:10:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:14:13</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:14:37</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:15:47</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:16:12</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:18:02</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:18:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:23:40</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:24:26</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:25:04</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:25:28</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:25:07</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:29:02</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:28:28</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:32:00</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:31:33</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:34:52</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:34:24</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:41:46</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:41:35</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:44:34</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:44:05</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:54:20</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:53:49</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:56:47</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:56:00</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:57:58</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:57:48</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:59:54</t>
-  </si>
-  <si>
-    <t>01/11/2024 08:59:46</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:05:33</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:04:25</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:08:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:07:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:09:41</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:09:12</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:11:25</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:11:02</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:11:27</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:11:03</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:13:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:13:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:14:21</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:14:13</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:17:49</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:17:37</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:18:36</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:18:19</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:19:21</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:18:20</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:22:30</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:19:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:24:44</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:22:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:26:40</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:24:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:27:42</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:25:42</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:30:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:27:06</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:31:58</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:29:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:36:16</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:31:02</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:40:14</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:35:54</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:42:16</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:39:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:56:12</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:41:03</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:59:03</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:55:50</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:00:52</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:58:26</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:02:43</t>
-  </si>
-  <si>
-    <t>01/11/2024 09:58:27</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:03:03</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:00:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:04:08</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:02:06</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:04:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:02:56</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:05:27</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:02:57</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:06:01</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:03:50</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:07:25</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:04:48</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:08:58</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:04:49</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:11:29</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:05:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:12:08</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:05:44</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:22:53</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:06:38</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:22:56</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:08:35</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:24:59</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:09:45</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:26:36</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:11:53</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:27:29</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:17:30</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:28:13</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:22:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:29:45</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:23:18</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:30:46</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:25:20</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:32:07</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:26:43</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:33:36</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:27:52</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:34:41</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:28:33</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:40:00</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:30:02</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:43:38</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:31:09</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:44:41</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:31:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:49:19</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:32:40</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:52:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:34:17</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:02:57</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:39:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:21:17</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:41:09</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:25:14</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:41:28</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:28:57</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:48:44</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:31:29</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:52:13</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:36:28</t>
-  </si>
-  <si>
-    <t>01/11/2024 12:53:37</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:39:57</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:20:28</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:48:01</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:23:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:51:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:23:23</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:53:08</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:27:28</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:53:36</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:30:46</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:55:08</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:35:40</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:57:30</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:35:41</t>
-  </si>
-  <si>
-    <t>01/11/2024 14:56:05</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:38:11</t>
-  </si>
-  <si>
-    <t>01/11/2024 14:57:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:42:05</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:00:47</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:48:19</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:03:29</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:52:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:08:20</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:53:26</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:10:57</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:54:39</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:12:24</t>
-  </si>
-  <si>
-    <t>01/11/2024 13:57:09</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:36:47</t>
-  </si>
-  <si>
-    <t>01/11/2024 14:54:57</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:41:45</t>
-  </si>
-  <si>
-    <t>01/11/2024 14:57:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:51:46</t>
-  </si>
-  <si>
-    <t>01/11/2024 14:58:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:53:31</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:03:17</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:53:35</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:03:18</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:55:22</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:07:32</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:55:29</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:10:38</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:59:06</t>
-  </si>
-  <si>
-    <t>01/11/2024 15:12:14</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:03:53</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:32:03</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:03:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:37:52</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:06:24</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:41:35</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:07:00</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:44:36</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:09:34</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:51:29</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:11:16</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:53:10</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:13:39</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:55:13</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:15:25</t>
-  </si>
-  <si>
-    <t>01/11/2024 18:57:16</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:16:20</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:00:53</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:19:37</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:03:38</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:19:44</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:05:21</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:21:42</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:06:49</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:24:07</t>
-  </si>
-  <si>
     <t>01/11/2024 19:10:06</t>
   </si>
   <si>
+    <t>02/11/2024 17:09:30</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:12:35</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:12:54</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:14:21</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:17:14</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:16:11</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:19:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:16:13</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:20:20</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:18:55</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:32:29</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:18:56</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:38:34</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:21:24</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:39:52</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:23:48</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:43:05</t>
+  </si>
+  <si>
+    <t>01/11/2024 19:26:30</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:48:23</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:08:20</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:52:25</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:12:33</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:53:29</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:16:52</t>
+  </si>
+  <si>
+    <t>02/11/2024 18:01:59</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:19:13</t>
+  </si>
+  <si>
+    <t>02/11/2024 18:05:13</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:20:03</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:29:56</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:32:01</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:44:47</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:38:06</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:47:21</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:39:15</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:47:28</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:40:57</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:59:20</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:45:43</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:00:40</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:48:55</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:08:21</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:52:49</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:08:26</t>
+  </si>
+  <si>
+    <t>02/11/2024 17:59:14</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:10:46</t>
+  </si>
+  <si>
+    <t>02/11/2024 18:04:31</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:18:39</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:39:57</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:19:27</t>
+  </si>
+  <si>
+    <t>04/11/2024 10:57:04</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:22:04</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:02:43</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:31:07</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:07:11</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:33:27</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:08:44</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:36:38</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:19:00</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>01/11/2024 19:12:35</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:14:21</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:16:11</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:16:13</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:18:55</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:18:56</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:21:24</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:23:48</t>
-  </si>
-  <si>
-    <t>01/11/2024 19:26:30</t>
+    <t>04/11/2024 11:21:39</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:29:57</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:33:09</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:33:11</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:36:18</t>
+  </si>
+  <si>
+    <t>04/11/2024 11:38:17</t>
   </si>
 </sst>
 </file>
@@ -821,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2495,10 +2666,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>14</v>
@@ -2509,10 +2680,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>243</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>246</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>14</v>
@@ -2523,10 +2694,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>245</v>
-      </c>
-      <c r="B122" t="s" s="0">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>248</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>14</v>
@@ -2537,10 +2708,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>246</v>
-      </c>
-      <c r="B123" t="s" s="0">
-        <v>244</v>
+        <v>249</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>250</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>14</v>
@@ -2551,10 +2722,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
-        <v>247</v>
-      </c>
-      <c r="B124" t="s" s="0">
-        <v>244</v>
+        <v>251</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>252</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>14</v>
@@ -2565,10 +2736,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
-        <v>248</v>
-      </c>
-      <c r="B125" t="s" s="0">
-        <v>244</v>
+        <v>253</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>254</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>14</v>
@@ -2579,10 +2750,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
-        <v>249</v>
-      </c>
-      <c r="B126" t="s" s="0">
-        <v>244</v>
+        <v>255</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>256</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>14</v>
@@ -2593,10 +2764,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>250</v>
-      </c>
-      <c r="B127" t="s" s="0">
-        <v>244</v>
+        <v>257</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>258</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>14</v>
@@ -2607,10 +2778,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>251</v>
-      </c>
-      <c r="B128" t="s" s="0">
-        <v>244</v>
+        <v>259</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>260</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>14</v>
@@ -2621,10 +2792,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>244</v>
+        <v>261</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>262</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>14</v>
@@ -2635,15 +2806,393 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>253</v>
-      </c>
-      <c r="B130" t="s" s="0">
-        <v>244</v>
+        <v>263</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>264</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D130" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>290</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>291</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>307</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s" s="0">
         <v>7</v>
       </c>
     </row>
